--- a/TEAM.xlsx
+++ b/TEAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E283D066-40C7-1F40-9D82-91DEA5FB3067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4771D55-5D99-9440-8D1F-8369E9774CBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20520" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19380" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
   <si>
     <t>Q117</t>
   </si>
@@ -388,9 +388,6 @@
     <t>ARPU y/y</t>
   </si>
   <si>
-    <t>31/12/2019</t>
-  </si>
-  <si>
     <t>Q120</t>
   </si>
   <si>
@@ -403,22 +400,16 @@
     <t>Q420</t>
   </si>
   <si>
-    <t>30/9/2019</t>
-  </si>
-  <si>
-    <t>31/3/2020</t>
-  </si>
-  <si>
-    <t>30/6/2020</t>
-  </si>
-  <si>
-    <t>386-390</t>
-  </si>
-  <si>
-    <t>395-399</t>
-  </si>
-  <si>
-    <t>1590-1600</t>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>PRODUCTS</t>
   </si>
 </sst>
 </file>
@@ -429,7 +420,7 @@
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -493,6 +484,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -542,7 +541,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -723,6 +722,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -748,14 +783,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -772,7 +807,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914900" y="1498600"/>
+          <a:off x="5727700" y="1498600"/>
           <a:ext cx="0" cy="9740900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -804,14 +839,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>259644</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>155734</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>14111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>259644</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>155734</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -828,8 +863,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18026944" y="179211"/>
-          <a:ext cx="0" cy="9879189"/>
+          <a:off x="18870916" y="175747"/>
+          <a:ext cx="0" cy="9674835"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1121,11 +1156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1147,16 +1182,16 @@
         <v>64</v>
       </c>
       <c r="C2" s="33">
-        <v>176.6</v>
+        <v>234.16</v>
       </c>
       <c r="D2" s="72">
-        <v>43962</v>
+        <v>44195</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="34">
-        <v>-5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="11"/>
@@ -1169,11 +1204,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="6">
-        <f>Reports!S24</f>
-        <v>250.96</v>
+        <f>Reports!V24</f>
+        <v>248.01499999999999</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>30</v>
@@ -1193,7 +1228,7 @@
       </c>
       <c r="C4" s="36">
         <f>C2*C3</f>
-        <v>44319.536</v>
+        <v>58075.192399999993</v>
       </c>
       <c r="D4" s="73"/>
       <c r="E4" s="10" t="s">
@@ -1214,18 +1249,18 @@
         <v>26</v>
       </c>
       <c r="C5" s="6">
-        <f>Reports!S35</f>
-        <v>1067</v>
+        <f>Reports!V35</f>
+        <v>1286</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="37">
-        <f>NPV(F4,F30:DP30)</f>
-        <v>70810.533707463546</v>
+        <f>NPV(F4,G30:DP30)</f>
+        <v>58177.313777286319</v>
       </c>
       <c r="G5" s="35"/>
       <c r="K5" s="43"/>
@@ -1236,7 +1271,7 @@
       </c>
       <c r="C6" s="36">
         <f>C4-C5</f>
-        <v>43252.536</v>
+        <v>56789.192399999993</v>
       </c>
       <c r="D6" s="73"/>
       <c r="E6" s="38" t="s">
@@ -1244,7 +1279,7 @@
       </c>
       <c r="F6" s="39">
         <f>F5+C5</f>
-        <v>71877.533707463546</v>
+        <v>59463.313777286319</v>
       </c>
       <c r="K6" s="43"/>
     </row>
@@ -1257,7 +1292,7 @@
       </c>
       <c r="C7" s="40">
         <f>C6/C3</f>
-        <v>172.34832642652216</v>
+        <v>228.9748297482007</v>
       </c>
       <c r="D7" s="73"/>
       <c r="E7" s="41" t="s">
@@ -1265,11 +1300,11 @@
       </c>
       <c r="F7" s="42">
         <f>F6/C3</f>
-        <v>286.41031920411041</v>
+        <v>239.75692509439477</v>
       </c>
       <c r="G7" s="43">
         <f>F7/C2-1</f>
-        <v>0.6218024869994927</v>
+        <v>2.390213996581303E-2</v>
       </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.15">
@@ -1294,7 +1329,7 @@
         <v>2018</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:T10" si="0">D10+1</f>
+        <f t="shared" ref="E10:U10" si="0">D10+1</f>
         <v>2019</v>
       </c>
       <c r="F10" s="2">
@@ -1357,7 +1392,10 @@
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="U10" s="2"/>
+      <c r="U10" s="2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -1479,26 +1517,29 @@
         <v>634.03300000000002</v>
       </c>
       <c r="F11" s="3">
-        <f>E11*1.5</f>
-        <v>951.04950000000008</v>
+        <f>SUM(Reports!R3:U3)</f>
+        <v>931.3599999999999</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" ref="G11:J11" si="1">F11*1.5</f>
-        <v>1426.5742500000001</v>
+        <f>F11*1.45</f>
+        <v>1350.4719999999998</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
-        <v>2139.8613750000004</v>
+        <f t="shared" ref="H11:K11" si="1">G11*1.45</f>
+        <v>1958.1843999999996</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="1"/>
-        <v>3209.7920625000006</v>
+        <v>2839.3673799999992</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>4814.6880937500009</v>
-      </c>
-      <c r="K11" s="3"/>
+        <v>4117.0827009999985</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>5969.7699164499973</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1630,26 +1671,29 @@
         <v>394.75900000000001</v>
       </c>
       <c r="F12" s="3">
-        <f>E12*1.2</f>
-        <v>473.71080000000001</v>
+        <f>SUM(Reports!R4:U4)</f>
+        <v>469.279</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" ref="G12:J12" si="2">F12*1.2</f>
-        <v>568.45295999999996</v>
+        <f>F12*1.18</f>
+        <v>553.74921999999992</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
-        <v>682.14355199999989</v>
+        <f t="shared" ref="H12:K12" si="2">G12*1.18</f>
+        <v>653.42407959999991</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>818.57226239999989</v>
+        <v>771.04041392799991</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="2"/>
-        <v>982.28671487999986</v>
-      </c>
-      <c r="K12" s="3"/>
+        <v>909.82768843503982</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="2"/>
+        <v>1073.596672353347</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1781,26 +1825,29 @@
         <v>93.769000000000005</v>
       </c>
       <c r="F13" s="3">
-        <f>E13*1.1</f>
-        <v>103.14590000000001</v>
+        <f>SUM(Reports!R5:U5)</f>
+        <v>95.417999999999992</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" ref="G13:J13" si="3">F13*1.1</f>
-        <v>113.46049000000002</v>
+        <f>F13*1.05</f>
+        <v>100.18889999999999</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="3"/>
-        <v>124.80653900000003</v>
+        <f t="shared" ref="H13:K13" si="3">G13*1.05</f>
+        <v>105.19834499999999</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>137.28719290000004</v>
+        <v>110.45826224999999</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="3"/>
-        <v>151.01591219000005</v>
-      </c>
-      <c r="K13" s="3"/>
+        <v>115.9811753625</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="3"/>
+        <v>121.780234130625</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1932,26 +1979,29 @@
         <v>87.98</v>
       </c>
       <c r="F14" s="3">
-        <f>E14*1.45</f>
-        <v>127.571</v>
+        <f>SUM(Reports!R6:U6)</f>
+        <v>117.726</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" ref="G14:J14" si="4">F14*1.45</f>
-        <v>184.97794999999999</v>
+        <f>F14*1.3</f>
+        <v>153.0438</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="4"/>
-        <v>268.21802750000001</v>
+        <f t="shared" ref="H14:K14" si="4">G14*1.3</f>
+        <v>198.95694</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="4"/>
-        <v>388.916139875</v>
+        <v>258.64402200000001</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="4"/>
-        <v>563.92840281874999</v>
-      </c>
-      <c r="K14" s="3"/>
+        <v>336.23722860000004</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="4"/>
+        <v>437.10839718000005</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -2200,27 +2250,30 @@
         <f>E64/1000000</f>
         <v>0.152727</v>
       </c>
-      <c r="F16" s="59">
-        <f>E16*1.2</f>
-        <v>0.1832724</v>
+      <c r="F16" s="61">
+        <f>F64/1000000</f>
+        <v>0.174097</v>
       </c>
       <c r="G16" s="59">
-        <f t="shared" ref="G16:J16" si="5">F16*1.2</f>
-        <v>0.21992687999999999</v>
+        <f>F16*1.15</f>
+        <v>0.20021154999999999</v>
       </c>
       <c r="H16" s="59">
-        <f t="shared" si="5"/>
-        <v>0.26391225599999996</v>
+        <f t="shared" ref="H16:K16" si="5">G16*1.15</f>
+        <v>0.23024328249999998</v>
       </c>
       <c r="I16" s="59">
         <f t="shared" si="5"/>
-        <v>0.31669470719999993</v>
+        <v>0.26477977487499993</v>
       </c>
       <c r="J16" s="59">
         <f t="shared" si="5"/>
-        <v>0.38003364863999989</v>
-      </c>
-      <c r="K16" s="59"/>
+        <v>0.30449674110624991</v>
+      </c>
+      <c r="K16" s="59">
+        <f t="shared" si="5"/>
+        <v>0.35017125227218737</v>
+      </c>
       <c r="L16" s="59"/>
       <c r="M16" s="59"/>
       <c r="N16" s="59"/>
@@ -2348,27 +2401,30 @@
         <f>SUM(E11:E14)/E16</f>
         <v>7926.1754634085655</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" ref="F17:J17" si="6">E17*1.15</f>
-        <v>9115.1017829198499</v>
+      <c r="F17" s="15">
+        <f>SUM(F11:F14)/F16</f>
+        <v>9269.4474919154254</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="6"/>
-        <v>10482.367050357827</v>
+        <f>F17*1.1</f>
+        <v>10196.392241106969</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="6"/>
-        <v>12054.722107911501</v>
+        <f t="shared" ref="H17:K17" si="6">G17*1.1</f>
+        <v>11216.031465217666</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="6"/>
-        <v>13862.930424098226</v>
+        <v>12337.634611739433</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="6"/>
-        <v>15942.369987712958</v>
-      </c>
-      <c r="K17" s="3"/>
+        <v>13571.398072913378</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="6"/>
+        <v>14928.537880204718</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2480,8 +2536,8 @@
       <c r="DP17" s="3"/>
     </row>
     <row r="18" spans="1:120" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="68" t="s">
-        <v>126</v>
+      <c r="F18" s="68">
+        <v>1600</v>
       </c>
     </row>
     <row r="19" spans="1:120" x14ac:dyDescent="0.15">
@@ -2504,67 +2560,70 @@
         <f>SUM(E11:E14)</f>
         <v>1210.5409999999999</v>
       </c>
-      <c r="F19" s="31">
-        <f>F16*F17</f>
-        <v>1670.5465799999999</v>
+      <c r="F19" s="12">
+        <f>SUM(F11:F14)</f>
+        <v>1613.7829999999999</v>
       </c>
       <c r="G19" s="31">
-        <f t="shared" ref="G19:I19" si="7">G16*G17</f>
-        <v>2305.3542803999999</v>
+        <f>G16*G17</f>
+        <v>2041.4354949999997</v>
       </c>
       <c r="H19" s="31">
-        <f t="shared" si="7"/>
-        <v>3181.3889069519992</v>
+        <f t="shared" ref="H19:K19" si="7">H16*H17</f>
+        <v>2582.4159011749998</v>
       </c>
       <c r="I19" s="31">
         <f t="shared" si="7"/>
-        <v>4390.3166915937582</v>
+        <v>3266.7561149863741</v>
       </c>
       <c r="J19" s="31">
-        <f>J16*J17</f>
-        <v>6058.6370343993858</v>
+        <f t="shared" si="7"/>
+        <v>4132.4464854577636</v>
       </c>
       <c r="K19" s="31">
-        <f>J19*1.1</f>
-        <v>6664.5007378393248</v>
+        <f t="shared" si="7"/>
+        <v>5227.5448041040718</v>
       </c>
       <c r="L19" s="31">
-        <f t="shared" ref="L19:T19" si="8">K19*1.1</f>
-        <v>7330.9508116232582</v>
+        <f t="shared" ref="L19:U19" si="8">K19*1.1</f>
+        <v>5750.299284514479</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="8"/>
-        <v>8064.0458927855843</v>
+        <v>6325.3292129659276</v>
       </c>
       <c r="N19" s="31">
         <f t="shared" si="8"/>
-        <v>8870.4504820641432</v>
+        <v>6957.8621342625211</v>
       </c>
       <c r="O19" s="31">
         <f t="shared" si="8"/>
-        <v>9757.4955302705584</v>
+        <v>7653.6483476887734</v>
       </c>
       <c r="P19" s="31">
         <f t="shared" si="8"/>
-        <v>10733.245083297616</v>
+        <v>8419.0131824576511</v>
       </c>
       <c r="Q19" s="31">
         <f t="shared" si="8"/>
-        <v>11806.569591627378</v>
+        <v>9260.9145007034167</v>
       </c>
       <c r="R19" s="31">
         <f t="shared" si="8"/>
-        <v>12987.226550790117</v>
+        <v>10187.005950773759</v>
       </c>
       <c r="S19" s="31">
         <f t="shared" si="8"/>
-        <v>14285.94920586913</v>
+        <v>11205.706545851135</v>
       </c>
       <c r="T19" s="31">
         <f t="shared" si="8"/>
-        <v>15714.544126456045</v>
-      </c>
-      <c r="U19" s="2"/>
+        <v>12326.27720043625</v>
+      </c>
+      <c r="U19" s="31">
+        <f t="shared" si="8"/>
+        <v>13558.904920479878</v>
+      </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -2685,67 +2744,70 @@
         <f>SUM(Reports!N12:Q12)</f>
         <v>210.15600000000001</v>
       </c>
-      <c r="F20" s="14">
-        <f>F19-F21</f>
-        <v>290.01527999999985</v>
+      <c r="F20" s="3">
+        <f>SUM(Reports!R12:U12)</f>
+        <v>268.767</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" ref="G20:H20" si="9">G19-G21</f>
-        <v>400.22108639999988</v>
+        <v>339.99025499999993</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="9"/>
-        <v>552.30509923199952</v>
+        <v>430.08767257499994</v>
       </c>
       <c r="I20" s="14">
         <f t="shared" ref="I20:L20" si="10">I19-I21</f>
-        <v>762.18103694015917</v>
+        <v>544.06090580737464</v>
       </c>
       <c r="J20" s="14">
         <f>J19-J21</f>
-        <v>1051.8098309774196</v>
+        <v>688.23704584632878</v>
       </c>
       <c r="K20" s="14">
         <f t="shared" si="10"/>
-        <v>1156.9908140751622</v>
+        <v>870.61986299560613</v>
       </c>
       <c r="L20" s="14">
         <f t="shared" si="10"/>
-        <v>1272.6898954826784</v>
+        <v>957.68184929516701</v>
       </c>
       <c r="M20" s="14">
         <f t="shared" ref="M20:T20" si="11">M19-M21</f>
-        <v>1399.9588850309465</v>
+        <v>1053.4500342246838</v>
       </c>
       <c r="N20" s="14">
         <f t="shared" si="11"/>
-        <v>1539.9547735340411</v>
+        <v>1158.7950376471526</v>
       </c>
       <c r="O20" s="14">
         <f t="shared" si="11"/>
-        <v>1693.9502508874448</v>
+        <v>1274.6745414118677</v>
       </c>
       <c r="P20" s="14">
         <f t="shared" si="11"/>
-        <v>1863.3452759761894</v>
+        <v>1402.1419955530546</v>
       </c>
       <c r="Q20" s="14">
         <f t="shared" si="11"/>
-        <v>2049.6798035738084</v>
+        <v>1542.3561951083602</v>
       </c>
       <c r="R20" s="14">
         <f t="shared" si="11"/>
-        <v>2254.6477839311901</v>
+        <v>1696.5918146191962</v>
       </c>
       <c r="S20" s="14">
         <f t="shared" si="11"/>
-        <v>2480.1125623243097</v>
+        <v>1866.2509960811167</v>
       </c>
       <c r="T20" s="14">
         <f t="shared" si="11"/>
-        <v>2728.1238185567399</v>
-      </c>
-      <c r="U20" s="2"/>
+        <v>2052.8760956892274</v>
+      </c>
+      <c r="U20" s="14">
+        <f t="shared" ref="U20" si="12">U19-U21</f>
+        <v>2258.16370525815</v>
+      </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -2866,67 +2928,70 @@
         <f>E19-E20</f>
         <v>1000.385</v>
       </c>
-      <c r="F21" s="14">
-        <f>F19*E34</f>
-        <v>1380.5313000000001</v>
+      <c r="F21" s="15">
+        <f>F19-F20</f>
+        <v>1345.0159999999998</v>
       </c>
       <c r="G21" s="14">
-        <f t="shared" ref="G21:T21" si="12">G19*F34</f>
-        <v>1905.133194</v>
+        <f t="shared" ref="G21:U21" si="13">G19*F34</f>
+        <v>1701.4452399999998</v>
       </c>
       <c r="H21" s="14">
-        <f t="shared" si="12"/>
-        <v>2629.0838077199996</v>
+        <f t="shared" si="13"/>
+        <v>2152.3282285999999</v>
       </c>
       <c r="I21" s="14">
-        <f t="shared" si="12"/>
-        <v>3628.135654653599</v>
+        <f t="shared" si="13"/>
+        <v>2722.6952091789994</v>
       </c>
       <c r="J21" s="14">
-        <f t="shared" si="12"/>
-        <v>5006.8272034219663</v>
+        <f t="shared" si="13"/>
+        <v>3444.2094396114348</v>
       </c>
       <c r="K21" s="14">
-        <f t="shared" si="12"/>
-        <v>5507.5099237641625</v>
+        <f t="shared" si="13"/>
+        <v>4356.9249411084656</v>
       </c>
       <c r="L21" s="14">
-        <f t="shared" si="12"/>
-        <v>6058.2609161405799</v>
+        <f t="shared" si="13"/>
+        <v>4792.617435219312</v>
       </c>
       <c r="M21" s="14">
-        <f t="shared" si="12"/>
-        <v>6664.0870077546379</v>
+        <f t="shared" si="13"/>
+        <v>5271.8791787412438</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" si="12"/>
-        <v>7330.4957085301021</v>
+        <f t="shared" si="13"/>
+        <v>5799.0670966153684</v>
       </c>
       <c r="O21" s="14">
-        <f t="shared" si="12"/>
-        <v>8063.5452793831137</v>
+        <f t="shared" si="13"/>
+        <v>6378.9738062769056</v>
       </c>
       <c r="P21" s="14">
-        <f t="shared" si="12"/>
-        <v>8869.8998073214261</v>
+        <f t="shared" si="13"/>
+        <v>7016.8711869045965</v>
       </c>
       <c r="Q21" s="14">
-        <f t="shared" si="12"/>
-        <v>9756.8897880535696</v>
+        <f t="shared" si="13"/>
+        <v>7718.5583055950565</v>
       </c>
       <c r="R21" s="14">
-        <f t="shared" si="12"/>
-        <v>10732.578766858927</v>
+        <f t="shared" si="13"/>
+        <v>8490.4141361545626</v>
       </c>
       <c r="S21" s="14">
-        <f t="shared" si="12"/>
-        <v>11805.836643544821</v>
+        <f t="shared" si="13"/>
+        <v>9339.4555497700185</v>
       </c>
       <c r="T21" s="14">
-        <f t="shared" si="12"/>
-        <v>12986.420307899305</v>
-      </c>
-      <c r="U21" s="2"/>
+        <f t="shared" si="13"/>
+        <v>10273.401104747023</v>
+      </c>
+      <c r="U21" s="14">
+        <f t="shared" si="13"/>
+        <v>11300.741215221728</v>
+      </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -3047,67 +3112,70 @@
         <f>SUM(Reports!N14:Q14)</f>
         <v>578.81299999999999</v>
       </c>
-      <c r="F22" s="14">
-        <f>E22*1.3</f>
-        <v>752.45690000000002</v>
+      <c r="F22" s="3">
+        <f>SUM(Reports!R14:U14)</f>
+        <v>763</v>
       </c>
       <c r="G22" s="14">
-        <f t="shared" ref="G22:J22" si="13">F22*1.3</f>
-        <v>978.19397000000004</v>
+        <f t="shared" ref="G22" si="14">F22*1.3</f>
+        <v>991.9</v>
       </c>
       <c r="H22" s="14">
-        <f t="shared" si="13"/>
-        <v>1271.652161</v>
+        <f t="shared" ref="H22" si="15">G22*1.3</f>
+        <v>1289.47</v>
       </c>
       <c r="I22" s="14">
-        <f t="shared" si="13"/>
-        <v>1653.1478093000001</v>
+        <f t="shared" ref="I22" si="16">H22*1.3</f>
+        <v>1676.3110000000001</v>
       </c>
       <c r="J22" s="14">
-        <f t="shared" si="13"/>
-        <v>2149.0921520900001</v>
+        <f t="shared" ref="J22" si="17">I22*1.3</f>
+        <v>2179.2043000000003</v>
       </c>
       <c r="K22" s="14">
-        <f t="shared" ref="K22:T22" si="14">J22*1.05</f>
-        <v>2256.5467596945005</v>
+        <f t="shared" ref="K22" si="18">J22*1.3</f>
+        <v>2832.9655900000007</v>
       </c>
       <c r="L22" s="14">
-        <f t="shared" si="14"/>
-        <v>2369.3740976792255</v>
+        <f t="shared" ref="L22:U22" si="19">K22*1.05</f>
+        <v>2974.6138695000009</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" si="14"/>
-        <v>2487.842802563187</v>
+        <f t="shared" si="19"/>
+        <v>3123.3445629750008</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="14"/>
-        <v>2612.2349426913465</v>
+        <f t="shared" si="19"/>
+        <v>3279.5117911237512</v>
       </c>
       <c r="O22" s="14">
-        <f t="shared" si="14"/>
-        <v>2742.8466898259139</v>
+        <f t="shared" si="19"/>
+        <v>3443.4873806799387</v>
       </c>
       <c r="P22" s="14">
-        <f t="shared" si="14"/>
-        <v>2879.9890243172099</v>
+        <f t="shared" si="19"/>
+        <v>3615.6617497139359</v>
       </c>
       <c r="Q22" s="14">
-        <f t="shared" si="14"/>
-        <v>3023.9884755330704</v>
+        <f t="shared" si="19"/>
+        <v>3796.4448371996327</v>
       </c>
       <c r="R22" s="14">
-        <f t="shared" si="14"/>
-        <v>3175.1878993097239</v>
+        <f t="shared" si="19"/>
+        <v>3986.2670790596144</v>
       </c>
       <c r="S22" s="14">
-        <f t="shared" si="14"/>
-        <v>3333.9472942752104</v>
+        <f t="shared" si="19"/>
+        <v>4185.5804330125957</v>
       </c>
       <c r="T22" s="14">
-        <f t="shared" si="14"/>
-        <v>3500.6446589889711</v>
-      </c>
-      <c r="U22" s="2"/>
+        <f t="shared" si="19"/>
+        <v>4394.8594546632257</v>
+      </c>
+      <c r="U22" s="14">
+        <f t="shared" si="19"/>
+        <v>4614.6024273963876</v>
+      </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -3228,67 +3296,70 @@
         <f>SUM(Reports!N15:Q15)</f>
         <v>268.75599999999997</v>
       </c>
-      <c r="F23" s="14">
-        <f>E23*1.4</f>
-        <v>376.25839999999994</v>
+      <c r="F23" s="3">
+        <f>SUM(Reports!R15:U15)</f>
+        <v>299</v>
       </c>
       <c r="G23" s="14">
-        <f t="shared" ref="G23:I23" si="15">F23*1.4</f>
-        <v>526.76175999999987</v>
+        <f>F23*1.1</f>
+        <v>328.90000000000003</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" si="15"/>
-        <v>737.46646399999975</v>
+        <f t="shared" ref="H23:K23" si="20">G23*1.1</f>
+        <v>361.79000000000008</v>
       </c>
       <c r="I23" s="14">
-        <f t="shared" si="15"/>
-        <v>1032.4530495999995</v>
+        <f t="shared" si="20"/>
+        <v>397.96900000000011</v>
       </c>
       <c r="J23" s="14">
-        <f t="shared" ref="J23" si="16">I23*1.4</f>
-        <v>1445.4342694399993</v>
+        <f t="shared" si="20"/>
+        <v>437.76590000000016</v>
       </c>
       <c r="K23" s="14">
-        <f t="shared" ref="K23:T23" si="17">J23*0.98</f>
-        <v>1416.5255840511993</v>
+        <f t="shared" si="20"/>
+        <v>481.54249000000021</v>
       </c>
       <c r="L23" s="14">
-        <f t="shared" si="17"/>
-        <v>1388.1950723701752</v>
+        <f t="shared" ref="L23:U23" si="21">K23*0.98</f>
+        <v>471.91164020000019</v>
       </c>
       <c r="M23" s="14">
-        <f t="shared" si="17"/>
-        <v>1360.4311709227718</v>
+        <f t="shared" si="21"/>
+        <v>462.4734073960002</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" si="17"/>
-        <v>1333.2225475043163</v>
+        <f t="shared" si="21"/>
+        <v>453.22393924808017</v>
       </c>
       <c r="O23" s="14">
-        <f t="shared" si="17"/>
-        <v>1306.5580965542299</v>
+        <f t="shared" si="21"/>
+        <v>444.15946046311853</v>
       </c>
       <c r="P23" s="14">
-        <f t="shared" si="17"/>
-        <v>1280.4269346231454</v>
+        <f t="shared" si="21"/>
+        <v>435.27627125385618</v>
       </c>
       <c r="Q23" s="14">
-        <f t="shared" si="17"/>
-        <v>1254.8183959306825</v>
+        <f t="shared" si="21"/>
+        <v>426.57074582877902</v>
       </c>
       <c r="R23" s="14">
-        <f t="shared" si="17"/>
-        <v>1229.7220280120689</v>
+        <f t="shared" si="21"/>
+        <v>418.03933091220341</v>
       </c>
       <c r="S23" s="14">
-        <f t="shared" si="17"/>
-        <v>1205.1275874518276</v>
+        <f t="shared" si="21"/>
+        <v>409.67854429395936</v>
       </c>
       <c r="T23" s="14">
-        <f t="shared" si="17"/>
-        <v>1181.025035702791</v>
-      </c>
-      <c r="U23" s="2"/>
+        <f t="shared" si="21"/>
+        <v>401.48497340808018</v>
+      </c>
+      <c r="U23" s="14">
+        <f t="shared" si="21"/>
+        <v>393.45527393991858</v>
+      </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -3409,67 +3480,70 @@
         <f>SUM(Reports!N16:Q16)</f>
         <v>215.73400000000001</v>
       </c>
-      <c r="F24" s="14">
-        <f>E24*1.3</f>
-        <v>280.45420000000001</v>
+      <c r="F24" s="3">
+        <f>SUM(Reports!R16:U16)</f>
+        <v>268</v>
       </c>
       <c r="G24" s="14">
-        <f t="shared" ref="G24:J24" si="18">F24*1.3</f>
-        <v>364.59046000000001</v>
+        <f>F24*1.25</f>
+        <v>335</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" si="18"/>
-        <v>473.96759800000001</v>
+        <f t="shared" ref="H24:K24" si="22">G24*1.25</f>
+        <v>418.75</v>
       </c>
       <c r="I24" s="14">
-        <f t="shared" si="18"/>
-        <v>616.15787740000007</v>
+        <f t="shared" si="22"/>
+        <v>523.4375</v>
       </c>
       <c r="J24" s="14">
-        <f t="shared" si="18"/>
-        <v>801.00524062000011</v>
+        <f t="shared" si="22"/>
+        <v>654.296875</v>
       </c>
       <c r="K24" s="14">
-        <f t="shared" ref="K24:T24" si="19">J24*0.98</f>
-        <v>784.98513580760005</v>
+        <f t="shared" si="22"/>
+        <v>817.87109375</v>
       </c>
       <c r="L24" s="14">
-        <f t="shared" si="19"/>
-        <v>769.285433091448</v>
+        <f t="shared" ref="L24:U24" si="23">K24*0.98</f>
+        <v>801.513671875</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" si="19"/>
-        <v>753.89972442961903</v>
+        <f t="shared" si="23"/>
+        <v>785.4833984375</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="19"/>
-        <v>738.82172994102666</v>
+        <f t="shared" si="23"/>
+        <v>769.77373046874993</v>
       </c>
       <c r="O24" s="14">
-        <f t="shared" si="19"/>
-        <v>724.04529534220615</v>
+        <f t="shared" si="23"/>
+        <v>754.37825585937492</v>
       </c>
       <c r="P24" s="14">
-        <f t="shared" si="19"/>
-        <v>709.56438943536205</v>
+        <f t="shared" si="23"/>
+        <v>739.29069074218739</v>
       </c>
       <c r="Q24" s="14">
-        <f t="shared" si="19"/>
-        <v>695.37310164665485</v>
+        <f t="shared" si="23"/>
+        <v>724.50487692734362</v>
       </c>
       <c r="R24" s="14">
-        <f t="shared" si="19"/>
-        <v>681.46563961372169</v>
+        <f t="shared" si="23"/>
+        <v>710.01477938879668</v>
       </c>
       <c r="S24" s="14">
-        <f t="shared" si="19"/>
-        <v>667.8363268214473</v>
+        <f t="shared" si="23"/>
+        <v>695.81448380102074</v>
       </c>
       <c r="T24" s="14">
-        <f t="shared" si="19"/>
-        <v>654.47960028501836</v>
-      </c>
-      <c r="U24" s="2"/>
+        <f t="shared" si="23"/>
+        <v>681.89819412500026</v>
+      </c>
+      <c r="U24" s="14">
+        <f t="shared" si="23"/>
+        <v>668.26023024250026</v>
+      </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -3590,67 +3664,70 @@
         <f>SUM(E22:E24)</f>
         <v>1063.3029999999999</v>
       </c>
-      <c r="F25" s="14">
-        <f t="shared" ref="F25:H25" si="20">SUM(F22:F24)</f>
-        <v>1409.1695</v>
+      <c r="F25" s="15">
+        <f>SUM(F22:F24)</f>
+        <v>1330</v>
       </c>
       <c r="G25" s="14">
-        <f t="shared" si="20"/>
-        <v>1869.54619</v>
+        <f t="shared" ref="G25:H25" si="24">SUM(G22:G24)</f>
+        <v>1655.8</v>
       </c>
       <c r="H25" s="14">
-        <f t="shared" si="20"/>
-        <v>2483.0862229999998</v>
+        <f t="shared" si="24"/>
+        <v>2070.0100000000002</v>
       </c>
       <c r="I25" s="14">
-        <f t="shared" ref="I25:L25" si="21">SUM(I22:I24)</f>
-        <v>3301.7587362999993</v>
+        <f t="shared" ref="I25:L25" si="25">SUM(I22:I24)</f>
+        <v>2597.7175000000002</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" si="21"/>
-        <v>4395.5316621499996</v>
+        <f t="shared" si="25"/>
+        <v>3271.2670750000007</v>
       </c>
       <c r="K25" s="14">
-        <f t="shared" si="21"/>
-        <v>4458.0574795533003</v>
+        <f t="shared" si="25"/>
+        <v>4132.3791737500014</v>
       </c>
       <c r="L25" s="14">
-        <f t="shared" si="21"/>
-        <v>4526.8546031408487</v>
+        <f t="shared" si="25"/>
+        <v>4248.0391815750008</v>
       </c>
       <c r="M25" s="14">
-        <f t="shared" ref="M25:T25" si="22">SUM(M22:M24)</f>
-        <v>4602.1736979155776</v>
+        <f t="shared" ref="M25:T25" si="26">SUM(M22:M24)</f>
+        <v>4371.3013688085011</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="22"/>
-        <v>4684.2792201366901</v>
+        <f t="shared" si="26"/>
+        <v>4502.5094608405816</v>
       </c>
       <c r="O25" s="14">
-        <f t="shared" si="22"/>
-        <v>4773.4500817223498</v>
+        <f t="shared" si="26"/>
+        <v>4642.0250970024326</v>
       </c>
       <c r="P25" s="14">
-        <f t="shared" si="22"/>
-        <v>4869.9803483757169</v>
+        <f t="shared" si="26"/>
+        <v>4790.2287117099795</v>
       </c>
       <c r="Q25" s="14">
-        <f t="shared" si="22"/>
-        <v>4974.1799731104074</v>
+        <f t="shared" si="26"/>
+        <v>4947.5204599557555</v>
       </c>
       <c r="R25" s="14">
-        <f t="shared" si="22"/>
-        <v>5086.3755669355141</v>
+        <f t="shared" si="26"/>
+        <v>5114.321189360614</v>
       </c>
       <c r="S25" s="14">
-        <f t="shared" si="22"/>
-        <v>5206.9112085484849</v>
+        <f t="shared" si="26"/>
+        <v>5291.073461107575</v>
       </c>
       <c r="T25" s="14">
-        <f t="shared" si="22"/>
-        <v>5336.1492949767799</v>
-      </c>
-      <c r="U25" s="2"/>
+        <f t="shared" si="26"/>
+        <v>5478.242622196306</v>
+      </c>
+      <c r="U25" s="14">
+        <f t="shared" ref="U25" si="27">SUM(U22:U24)</f>
+        <v>5676.3179315788066</v>
+      </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -3771,67 +3848,70 @@
         <f>E21-E25</f>
         <v>-62.917999999999893</v>
       </c>
-      <c r="F26" s="14">
-        <f t="shared" ref="F26:H26" si="23">F21-F25</f>
-        <v>-28.63819999999987</v>
+      <c r="F26" s="15">
+        <f>F21-F25</f>
+        <v>15.015999999999849</v>
       </c>
       <c r="G26" s="14">
-        <f t="shared" si="23"/>
-        <v>35.587003999999979</v>
+        <f t="shared" ref="G26:H26" si="28">G21-G25</f>
+        <v>45.645239999999831</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" si="23"/>
-        <v>145.99758471999985</v>
+        <f t="shared" si="28"/>
+        <v>82.318228599999657</v>
       </c>
       <c r="I26" s="14">
-        <f t="shared" ref="I26:L26" si="24">I21-I25</f>
-        <v>326.37691835359965</v>
+        <f t="shared" ref="I26:L26" si="29">I21-I25</f>
+        <v>124.97770917899925</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="24"/>
-        <v>611.29554127196661</v>
+        <f t="shared" si="29"/>
+        <v>172.94236461143419</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" si="24"/>
-        <v>1049.4524442108623</v>
+        <f t="shared" si="29"/>
+        <v>224.54576735846422</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" si="24"/>
-        <v>1531.4063129997312</v>
+        <f t="shared" si="29"/>
+        <v>544.57825364431119</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:T26" si="25">M21-M25</f>
-        <v>2061.9133098390603</v>
+        <f t="shared" ref="M26:T26" si="30">M21-M25</f>
+        <v>900.57780993274264</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="25"/>
-        <v>2646.216488393412</v>
+        <f t="shared" si="30"/>
+        <v>1296.5576357747868</v>
       </c>
       <c r="O26" s="14">
-        <f t="shared" si="25"/>
-        <v>3290.0951976607639</v>
+        <f t="shared" si="30"/>
+        <v>1736.948709274473</v>
       </c>
       <c r="P26" s="14">
-        <f t="shared" si="25"/>
-        <v>3999.9194589457093</v>
+        <f t="shared" si="30"/>
+        <v>2226.642475194617</v>
       </c>
       <c r="Q26" s="14">
-        <f t="shared" si="25"/>
-        <v>4782.7098149431622</v>
+        <f t="shared" si="30"/>
+        <v>2771.0378456393009</v>
       </c>
       <c r="R26" s="14">
-        <f t="shared" si="25"/>
-        <v>5646.2031999234132</v>
+        <f t="shared" si="30"/>
+        <v>3376.0929467939486</v>
       </c>
       <c r="S26" s="14">
-        <f t="shared" si="25"/>
-        <v>6598.9254349963358</v>
+        <f t="shared" si="30"/>
+        <v>4048.3820886624435</v>
       </c>
       <c r="T26" s="14">
-        <f t="shared" si="25"/>
-        <v>7650.2710129225252</v>
-      </c>
-      <c r="U26" s="2"/>
+        <f t="shared" si="30"/>
+        <v>4795.1584825507171</v>
+      </c>
+      <c r="U26" s="14">
+        <f t="shared" ref="U26" si="31">U21-U25</f>
+        <v>5624.423283642921</v>
+      </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -3952,67 +4032,70 @@
         <f>SUM(Reports!N19:Q19)</f>
         <v>-541.77600000000007</v>
       </c>
-      <c r="F27" s="14">
-        <f>E43*($F$3)</f>
-        <v>42.95</v>
+      <c r="F27" s="3">
+        <f>SUM(Reports!R19:U19)</f>
+        <v>-360</v>
       </c>
       <c r="G27" s="14">
-        <f t="shared" ref="G27:T27" si="26">F43*($F$3)</f>
-        <v>43.558251500000011</v>
+        <f t="shared" ref="G27:U27" si="32">F43*($F$3)</f>
+        <v>63.35</v>
       </c>
       <c r="H27" s="14">
-        <f t="shared" si="26"/>
-        <v>46.921924858750003</v>
+        <f t="shared" si="32"/>
+        <v>67.98229769999999</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" si="26"/>
-        <v>55.121004015846871</v>
+        <f t="shared" si="32"/>
+        <v>74.370070067749978</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="26"/>
-        <v>71.334665716548358</v>
+        <f t="shared" si="32"/>
+        <v>82.842350685736818</v>
       </c>
       <c r="K27" s="14">
-        <f t="shared" si="26"/>
-        <v>100.34644951356024</v>
+        <f t="shared" si="32"/>
+        <v>93.713201085866586</v>
       </c>
       <c r="L27" s="14">
-        <f t="shared" si="26"/>
-        <v>149.21290249684822</v>
+        <f t="shared" si="32"/>
+        <v>107.23920724475066</v>
       </c>
       <c r="M27" s="14">
-        <f t="shared" si="26"/>
-        <v>220.63921915545285</v>
+        <f t="shared" si="32"/>
+        <v>134.9414493325358</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="26"/>
-        <v>317.64770163771965</v>
+        <f t="shared" si="32"/>
+        <v>178.95101785131013</v>
       </c>
       <c r="O27" s="14">
-        <f t="shared" si="26"/>
-        <v>443.61192971404273</v>
+        <f t="shared" si="32"/>
+        <v>241.66013563041926</v>
       </c>
       <c r="P27" s="14">
-        <f t="shared" si="26"/>
-        <v>602.29448262747201</v>
+        <f t="shared" si="32"/>
+        <v>325.75101153887721</v>
       </c>
       <c r="Q27" s="14">
-        <f t="shared" si="26"/>
-        <v>797.88857514433221</v>
+        <f t="shared" si="32"/>
+        <v>434.22773472505071</v>
       </c>
       <c r="R27" s="14">
-        <f t="shared" si="26"/>
-        <v>1035.0640067230506</v>
+        <f t="shared" si="32"/>
+        <v>570.45152189053567</v>
       </c>
       <c r="S27" s="14">
-        <f t="shared" si="26"/>
-        <v>1319.0178630055254</v>
+        <f t="shared" si="32"/>
+        <v>738.17966180962628</v>
       </c>
       <c r="T27" s="14">
-        <f t="shared" si="26"/>
-        <v>1655.5304531706047</v>
-      </c>
-      <c r="U27" s="2"/>
+        <f t="shared" si="32"/>
+        <v>941.60853620468924</v>
+      </c>
+      <c r="U27" s="14">
+        <f t="shared" si="32"/>
+        <v>1185.4211345017939</v>
+      </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -4133,67 +4216,70 @@
         <f>E26+E27</f>
         <v>-604.69399999999996</v>
       </c>
-      <c r="F28" s="14">
-        <f t="shared" ref="F28:H28" si="27">F26+F27</f>
-        <v>14.311800000000133</v>
+      <c r="F28" s="15">
+        <f>F26+F27</f>
+        <v>-344.98400000000015</v>
       </c>
       <c r="G28" s="14">
-        <f t="shared" si="27"/>
-        <v>79.14525549999999</v>
+        <f t="shared" ref="G28:H28" si="33">G26+G27</f>
+        <v>108.99523999999982</v>
       </c>
       <c r="H28" s="14">
-        <f t="shared" si="27"/>
-        <v>192.91950957874985</v>
+        <f t="shared" si="33"/>
+        <v>150.30052629999966</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" ref="I28:L28" si="28">I26+I27</f>
-        <v>381.49792236944654</v>
+        <f t="shared" ref="I28:L28" si="34">I26+I27</f>
+        <v>199.34777924674921</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="28"/>
-        <v>682.63020698851494</v>
+        <f t="shared" si="34"/>
+        <v>255.784715297171</v>
       </c>
       <c r="K28" s="14">
-        <f t="shared" si="28"/>
-        <v>1149.7988937244224</v>
+        <f t="shared" si="34"/>
+        <v>318.25896844433078</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="28"/>
-        <v>1680.6192154965795</v>
+        <f t="shared" si="34"/>
+        <v>651.81746088906186</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" ref="M28:T28" si="29">M26+M27</f>
-        <v>2282.5525289945131</v>
+        <f t="shared" ref="M28:T28" si="35">M26+M27</f>
+        <v>1035.5192592652784</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="29"/>
-        <v>2963.8641900311318</v>
+        <f t="shared" si="35"/>
+        <v>1475.5086536260969</v>
       </c>
       <c r="O28" s="14">
-        <f t="shared" si="29"/>
-        <v>3733.7071273748065</v>
+        <f t="shared" si="35"/>
+        <v>1978.6088449048923</v>
       </c>
       <c r="P28" s="14">
-        <f t="shared" si="29"/>
-        <v>4602.2139415731817</v>
+        <f t="shared" si="35"/>
+        <v>2552.3934867334942</v>
       </c>
       <c r="Q28" s="14">
-        <f t="shared" si="29"/>
-        <v>5580.5983900874944</v>
+        <f t="shared" si="35"/>
+        <v>3205.2655803643515</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" si="29"/>
-        <v>6681.2672066464638</v>
+        <f t="shared" si="35"/>
+        <v>3946.5444686844844</v>
       </c>
       <c r="S28" s="14">
-        <f t="shared" si="29"/>
-        <v>7917.943298001861</v>
+        <f t="shared" si="35"/>
+        <v>4786.5617504720694</v>
       </c>
       <c r="T28" s="14">
-        <f t="shared" si="29"/>
-        <v>9305.8014660931294</v>
-      </c>
-      <c r="U28" s="2"/>
+        <f t="shared" si="35"/>
+        <v>5736.7670187554068</v>
+      </c>
+      <c r="U28" s="14">
+        <f t="shared" ref="U28" si="36">U26+U27</f>
+        <v>6809.8444181447148</v>
+      </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -4314,67 +4400,70 @@
         <f>SUM(Reports!N21:Q21)</f>
         <v>32.409999999999997</v>
       </c>
-      <c r="F29" s="14">
-        <f>F28*0.15</f>
-        <v>2.1467700000000201</v>
+      <c r="F29" s="3">
+        <f>SUM(Reports!R21:U21)</f>
+        <v>5</v>
       </c>
       <c r="G29" s="14">
-        <f t="shared" ref="G29:T29" si="30">G28*0.15</f>
-        <v>11.871788324999999</v>
+        <f t="shared" ref="G29:T29" si="37">G28*0.15</f>
+        <v>16.349285999999974</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" si="30"/>
-        <v>28.937926436812475</v>
+        <f t="shared" si="37"/>
+        <v>22.545078944999947</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" si="30"/>
-        <v>57.22468835541698</v>
+        <f t="shared" si="37"/>
+        <v>29.902166887012381</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="30"/>
-        <v>102.39453104827724</v>
+        <f t="shared" si="37"/>
+        <v>38.367707294575652</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" si="30"/>
-        <v>172.46983405866337</v>
+        <f t="shared" si="37"/>
+        <v>47.738845266649612</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="30"/>
-        <v>252.09288232448691</v>
+        <f t="shared" si="37"/>
+        <v>97.772619133359271</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" si="30"/>
-        <v>342.38287934917696</v>
+        <f t="shared" si="37"/>
+        <v>155.32788888979175</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="30"/>
-        <v>444.57962850466976</v>
+        <f t="shared" si="37"/>
+        <v>221.32629804391453</v>
       </c>
       <c r="O29" s="14">
-        <f t="shared" si="30"/>
-        <v>560.056069106221</v>
+        <f t="shared" si="37"/>
+        <v>296.79132673573383</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" si="30"/>
-        <v>690.33209123597726</v>
+        <f t="shared" si="37"/>
+        <v>382.85902301002415</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" si="30"/>
-        <v>837.08975851312414</v>
+        <f t="shared" si="37"/>
+        <v>480.78983705465271</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="30"/>
-        <v>1002.1900809969695</v>
+        <f t="shared" si="37"/>
+        <v>591.98167030267268</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" si="30"/>
-        <v>1187.691494700279</v>
+        <f t="shared" si="37"/>
+        <v>717.98426257081042</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="30"/>
-        <v>1395.8702199139693</v>
-      </c>
-      <c r="U29" s="2"/>
+        <f t="shared" si="37"/>
+        <v>860.51505281331094</v>
+      </c>
+      <c r="U29" s="14">
+        <f t="shared" ref="U29" si="38">U28*0.15</f>
+        <v>1021.4766627217072</v>
+      </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -4496,464 +4585,464 @@
         <v>-637.10399999999993</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" ref="F30:H30" si="31">F28-F29</f>
-        <v>12.165030000000113</v>
+        <f t="shared" ref="F30:H30" si="39">F28-F29</f>
+        <v>-349.98400000000015</v>
       </c>
       <c r="G30" s="12">
-        <f t="shared" si="31"/>
-        <v>67.273467174999993</v>
+        <f t="shared" si="39"/>
+        <v>92.645953999999847</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="31"/>
-        <v>163.98158314193739</v>
+        <f t="shared" si="39"/>
+        <v>127.75544735499972</v>
       </c>
       <c r="I30" s="12">
-        <f t="shared" ref="I30:L30" si="32">I28-I29</f>
-        <v>324.27323401402958</v>
+        <f t="shared" ref="I30:L30" si="40">I28-I29</f>
+        <v>169.44561235973683</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" si="32"/>
-        <v>580.23567594023768</v>
+        <f t="shared" si="40"/>
+        <v>217.41700800259537</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="32"/>
-        <v>977.32905966575913</v>
+        <f t="shared" si="40"/>
+        <v>270.52012317768117</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" si="32"/>
-        <v>1428.5263331720926</v>
+        <f t="shared" si="40"/>
+        <v>554.04484175570258</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" ref="M30:T30" si="33">M28-M29</f>
-        <v>1940.169649645336</v>
+        <f t="shared" ref="M30:T30" si="41">M28-M29</f>
+        <v>880.1913703754866</v>
       </c>
       <c r="N30" s="12">
-        <f t="shared" si="33"/>
-        <v>2519.2845615264619</v>
+        <f t="shared" si="41"/>
+        <v>1254.1823555821825</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" si="33"/>
-        <v>3173.6510582685855</v>
+        <f t="shared" si="41"/>
+        <v>1681.8175181691586</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" si="33"/>
-        <v>3911.8818503372045</v>
+        <f t="shared" si="41"/>
+        <v>2169.5344637234703</v>
       </c>
       <c r="Q30" s="12">
-        <f t="shared" si="33"/>
-        <v>4743.5086315743702</v>
+        <f t="shared" si="41"/>
+        <v>2724.4757433096988</v>
       </c>
       <c r="R30" s="12">
-        <f t="shared" si="33"/>
-        <v>5679.0771256494945</v>
+        <f t="shared" si="41"/>
+        <v>3354.5627983818117</v>
       </c>
       <c r="S30" s="12">
-        <f t="shared" si="33"/>
-        <v>6730.2518033015822</v>
+        <f t="shared" si="41"/>
+        <v>4068.5774879012588</v>
       </c>
       <c r="T30" s="12">
-        <f t="shared" si="33"/>
-        <v>7909.9312461791596</v>
+        <f t="shared" si="41"/>
+        <v>4876.2519659420959</v>
       </c>
       <c r="U30" s="12">
-        <f t="shared" ref="U30:CG30" si="34">T30*($F$2+1)</f>
-        <v>7870.3815899482643</v>
+        <f t="shared" ref="U30" si="42">U28-U29</f>
+        <v>5788.367755423008</v>
       </c>
       <c r="V30" s="12">
-        <f t="shared" si="34"/>
-        <v>7831.0296819985233</v>
+        <f t="shared" ref="U30:CG30" si="43">U30*($F$2+1)</f>
+        <v>5817.3095942001228</v>
       </c>
       <c r="W30" s="12">
-        <f t="shared" si="34"/>
-        <v>7791.8745335885305</v>
+        <f t="shared" si="43"/>
+        <v>5846.3961421711228</v>
       </c>
       <c r="X30" s="12">
-        <f t="shared" si="34"/>
-        <v>7752.9151609205883</v>
+        <f t="shared" si="43"/>
+        <v>5875.628122881978</v>
       </c>
       <c r="Y30" s="12">
-        <f t="shared" si="34"/>
-        <v>7714.1505851159855</v>
+        <f t="shared" si="43"/>
+        <v>5905.006263496387</v>
       </c>
       <c r="Z30" s="12">
-        <f t="shared" si="34"/>
-        <v>7675.5798321904058</v>
+        <f t="shared" si="43"/>
+        <v>5934.531294813868</v>
       </c>
       <c r="AA30" s="12">
-        <f t="shared" si="34"/>
-        <v>7637.2019330294534</v>
+        <f t="shared" si="43"/>
+        <v>5964.2039512879364</v>
       </c>
       <c r="AB30" s="12">
-        <f t="shared" si="34"/>
-        <v>7599.0159233643062</v>
+        <f t="shared" si="43"/>
+        <v>5994.0249710443759</v>
       </c>
       <c r="AC30" s="12">
-        <f t="shared" si="34"/>
-        <v>7561.0208437474848</v>
+        <f t="shared" si="43"/>
+        <v>6023.9950958995969</v>
       </c>
       <c r="AD30" s="12">
-        <f t="shared" si="34"/>
-        <v>7523.2157395287477</v>
+        <f t="shared" si="43"/>
+        <v>6054.1150713790939</v>
       </c>
       <c r="AE30" s="12">
-        <f t="shared" si="34"/>
-        <v>7485.5996608311043</v>
+        <f t="shared" si="43"/>
+        <v>6084.3856467359892</v>
       </c>
       <c r="AF30" s="12">
-        <f t="shared" si="34"/>
-        <v>7448.1716625269491</v>
+        <f t="shared" si="43"/>
+        <v>6114.8075749696682</v>
       </c>
       <c r="AG30" s="12">
-        <f t="shared" si="34"/>
-        <v>7410.9308042143148</v>
+        <f t="shared" si="43"/>
+        <v>6145.381612844516</v>
       </c>
       <c r="AH30" s="12">
-        <f t="shared" si="34"/>
-        <v>7373.8761501932431</v>
+        <f t="shared" si="43"/>
+        <v>6176.1085209087378</v>
       </c>
       <c r="AI30" s="12">
-        <f t="shared" si="34"/>
-        <v>7337.0067694422769</v>
+        <f t="shared" si="43"/>
+        <v>6206.9890635132806</v>
       </c>
       <c r="AJ30" s="12">
-        <f t="shared" si="34"/>
-        <v>7300.3217355950655</v>
+        <f t="shared" si="43"/>
+        <v>6238.0240088308465</v>
       </c>
       <c r="AK30" s="12">
-        <f t="shared" si="34"/>
-        <v>7263.8201269170904</v>
+        <f t="shared" si="43"/>
+        <v>6269.2141288749999</v>
       </c>
       <c r="AL30" s="12">
-        <f t="shared" si="34"/>
-        <v>7227.5010262825053</v>
+        <f t="shared" si="43"/>
+        <v>6300.5601995193747</v>
       </c>
       <c r="AM30" s="12">
-        <f t="shared" si="34"/>
-        <v>7191.3635211510928</v>
+        <f t="shared" si="43"/>
+        <v>6332.0630005169705</v>
       </c>
       <c r="AN30" s="12">
-        <f t="shared" si="34"/>
-        <v>7155.4067035453372</v>
+        <f t="shared" si="43"/>
+        <v>6363.7233155195545</v>
       </c>
       <c r="AO30" s="12">
-        <f t="shared" si="34"/>
-        <v>7119.6296700276107</v>
+        <f t="shared" si="43"/>
+        <v>6395.5419320971514</v>
       </c>
       <c r="AP30" s="12">
-        <f t="shared" si="34"/>
-        <v>7084.0315216774725</v>
+        <f t="shared" si="43"/>
+        <v>6427.5196417576362</v>
       </c>
       <c r="AQ30" s="12">
-        <f t="shared" si="34"/>
-        <v>7048.6113640690855</v>
+        <f t="shared" si="43"/>
+        <v>6459.6572399664237</v>
       </c>
       <c r="AR30" s="12">
-        <f t="shared" si="34"/>
-        <v>7013.3683072487402</v>
+        <f t="shared" si="43"/>
+        <v>6491.9555261662554</v>
       </c>
       <c r="AS30" s="12">
-        <f t="shared" si="34"/>
-        <v>6978.3014657124968</v>
+        <f t="shared" si="43"/>
+        <v>6524.4153037970864</v>
       </c>
       <c r="AT30" s="12">
-        <f t="shared" si="34"/>
-        <v>6943.4099583839343</v>
+        <f t="shared" si="43"/>
+        <v>6557.037380316071</v>
       </c>
       <c r="AU30" s="12">
-        <f t="shared" si="34"/>
-        <v>6908.6929085920146</v>
+        <f t="shared" si="43"/>
+        <v>6589.8225672176504</v>
       </c>
       <c r="AV30" s="12">
-        <f t="shared" si="34"/>
-        <v>6874.1494440490542</v>
+        <f t="shared" si="43"/>
+        <v>6622.7716800537382</v>
       </c>
       <c r="AW30" s="12">
-        <f t="shared" si="34"/>
-        <v>6839.7786968288092</v>
+        <f t="shared" si="43"/>
+        <v>6655.8855384540066</v>
       </c>
       <c r="AX30" s="12">
-        <f t="shared" si="34"/>
-        <v>6805.5798033446654</v>
+        <f t="shared" si="43"/>
+        <v>6689.1649661462761</v>
       </c>
       <c r="AY30" s="12">
-        <f t="shared" si="34"/>
-        <v>6771.5519043279419</v>
+        <f t="shared" si="43"/>
+        <v>6722.6107909770071</v>
       </c>
       <c r="AZ30" s="12">
-        <f t="shared" si="34"/>
-        <v>6737.6941448063026</v>
+        <f t="shared" si="43"/>
+        <v>6756.2238449318911</v>
       </c>
       <c r="BA30" s="12">
-        <f t="shared" si="34"/>
-        <v>6704.0056740822711</v>
+        <f t="shared" si="43"/>
+        <v>6790.0049641565502</v>
       </c>
       <c r="BB30" s="12">
-        <f t="shared" si="34"/>
-        <v>6670.4856457118594</v>
+        <f t="shared" si="43"/>
+        <v>6823.9549889773325</v>
       </c>
       <c r="BC30" s="12">
-        <f t="shared" si="34"/>
-        <v>6637.1332174833005</v>
+        <f t="shared" si="43"/>
+        <v>6858.0747639222182</v>
       </c>
       <c r="BD30" s="12">
-        <f t="shared" si="34"/>
-        <v>6603.9475513958841</v>
+        <f t="shared" si="43"/>
+        <v>6892.3651377418282</v>
       </c>
       <c r="BE30" s="12">
-        <f t="shared" si="34"/>
-        <v>6570.9278136389048</v>
+        <f t="shared" si="43"/>
+        <v>6926.826963430537</v>
       </c>
       <c r="BF30" s="12">
-        <f t="shared" si="34"/>
-        <v>6538.0731745707099</v>
+        <f t="shared" si="43"/>
+        <v>6961.4610982476888</v>
       </c>
       <c r="BG30" s="12">
-        <f t="shared" si="34"/>
-        <v>6505.3828086978565</v>
+        <f t="shared" si="43"/>
+        <v>6996.2684037389263</v>
       </c>
       <c r="BH30" s="12">
-        <f t="shared" si="34"/>
-        <v>6472.8558946543671</v>
+        <f t="shared" si="43"/>
+        <v>7031.2497457576201</v>
       </c>
       <c r="BI30" s="12">
-        <f t="shared" si="34"/>
-        <v>6440.4916151810949</v>
+        <f t="shared" si="43"/>
+        <v>7066.4059944864075</v>
       </c>
       <c r="BJ30" s="12">
-        <f t="shared" si="34"/>
-        <v>6408.2891571051896</v>
+        <f t="shared" si="43"/>
+        <v>7101.7380244588385</v>
       </c>
       <c r="BK30" s="12">
-        <f t="shared" si="34"/>
-        <v>6376.2477113196637</v>
+        <f t="shared" si="43"/>
+        <v>7137.2467145811315</v>
       </c>
       <c r="BL30" s="12">
-        <f t="shared" si="34"/>
-        <v>6344.3664727630658</v>
+        <f t="shared" si="43"/>
+        <v>7172.9329481540362</v>
       </c>
       <c r="BM30" s="12">
-        <f t="shared" si="34"/>
-        <v>6312.6446403992504</v>
+        <f t="shared" si="43"/>
+        <v>7208.7976128948058</v>
       </c>
       <c r="BN30" s="12">
-        <f t="shared" si="34"/>
-        <v>6281.0814171972543</v>
+        <f t="shared" si="43"/>
+        <v>7244.8416009592793</v>
       </c>
       <c r="BO30" s="12">
-        <f t="shared" si="34"/>
-        <v>6249.6760101112677</v>
+        <f t="shared" si="43"/>
+        <v>7281.0658089640747</v>
       </c>
       <c r="BP30" s="12">
-        <f t="shared" si="34"/>
-        <v>6218.4276300607116</v>
+        <f t="shared" si="43"/>
+        <v>7317.4711380088938</v>
       </c>
       <c r="BQ30" s="12">
-        <f t="shared" si="34"/>
-        <v>6187.3354919104077</v>
+        <f t="shared" si="43"/>
+        <v>7354.0584936989371</v>
       </c>
       <c r="BR30" s="12">
-        <f t="shared" si="34"/>
-        <v>6156.3988144508558</v>
+        <f t="shared" si="43"/>
+        <v>7390.8287861674307</v>
       </c>
       <c r="BS30" s="12">
-        <f t="shared" si="34"/>
-        <v>6125.616820378601</v>
+        <f t="shared" si="43"/>
+        <v>7427.7829300982667</v>
       </c>
       <c r="BT30" s="12">
-        <f t="shared" si="34"/>
-        <v>6094.9887362767076</v>
+        <f t="shared" si="43"/>
+        <v>7464.9218447487574</v>
       </c>
       <c r="BU30" s="12">
-        <f t="shared" si="34"/>
-        <v>6064.513792595324</v>
+        <f t="shared" si="43"/>
+        <v>7502.2464539725006</v>
       </c>
       <c r="BV30" s="12">
-        <f t="shared" si="34"/>
-        <v>6034.1912236323478</v>
+        <f t="shared" si="43"/>
+        <v>7539.7576862423621</v>
       </c>
       <c r="BW30" s="12">
-        <f t="shared" si="34"/>
-        <v>6004.0202675141863</v>
+        <f t="shared" si="43"/>
+        <v>7577.4564746735732</v>
       </c>
       <c r="BX30" s="12">
-        <f t="shared" si="34"/>
-        <v>5974.0001661766155</v>
+        <f t="shared" si="43"/>
+        <v>7615.3437570469405</v>
       </c>
       <c r="BY30" s="12">
-        <f t="shared" si="34"/>
-        <v>5944.1301653457322</v>
+        <f t="shared" si="43"/>
+        <v>7653.4204758321748</v>
       </c>
       <c r="BZ30" s="12">
-        <f t="shared" si="34"/>
-        <v>5914.4095145190031</v>
+        <f t="shared" si="43"/>
+        <v>7691.6875782113348</v>
       </c>
       <c r="CA30" s="12">
-        <f t="shared" si="34"/>
-        <v>5884.8374669464083</v>
+        <f t="shared" si="43"/>
+        <v>7730.1460161023906</v>
       </c>
       <c r="CB30" s="12">
-        <f t="shared" si="34"/>
-        <v>5855.4132796116764</v>
+        <f t="shared" si="43"/>
+        <v>7768.7967461829021</v>
       </c>
       <c r="CC30" s="12">
-        <f t="shared" si="34"/>
-        <v>5826.1362132136182</v>
+        <f t="shared" si="43"/>
+        <v>7807.6407299138154</v>
       </c>
       <c r="CD30" s="12">
-        <f t="shared" si="34"/>
-        <v>5797.0055321475502</v>
+        <f t="shared" si="43"/>
+        <v>7846.6789335633839</v>
       </c>
       <c r="CE30" s="12">
-        <f t="shared" si="34"/>
-        <v>5768.0205044868126</v>
+        <f t="shared" si="43"/>
+        <v>7885.9123282312003</v>
       </c>
       <c r="CF30" s="12">
-        <f t="shared" si="34"/>
-        <v>5739.1804019643787</v>
+        <f t="shared" si="43"/>
+        <v>7925.3418898723558</v>
       </c>
       <c r="CG30" s="12">
-        <f t="shared" si="34"/>
-        <v>5710.4844999545567</v>
+        <f t="shared" si="43"/>
+        <v>7964.9685993217163</v>
       </c>
       <c r="CH30" s="12">
-        <f t="shared" ref="CH30:DP30" si="35">CG30*($F$2+1)</f>
-        <v>5681.9320774547841</v>
+        <f t="shared" ref="CH30:DP30" si="44">CG30*($F$2+1)</f>
+        <v>8004.7934423183242</v>
       </c>
       <c r="CI30" s="12">
-        <f t="shared" si="35"/>
-        <v>5653.5224170675101</v>
+        <f t="shared" si="44"/>
+        <v>8044.8174095299146</v>
       </c>
       <c r="CJ30" s="12">
-        <f t="shared" si="35"/>
-        <v>5625.2548049821726</v>
+        <f t="shared" si="44"/>
+        <v>8085.0414965775635</v>
       </c>
       <c r="CK30" s="12">
-        <f t="shared" si="35"/>
-        <v>5597.1285309572613</v>
+        <f t="shared" si="44"/>
+        <v>8125.4667040604509</v>
       </c>
       <c r="CL30" s="12">
-        <f t="shared" si="35"/>
-        <v>5569.1428883024746</v>
+        <f t="shared" si="44"/>
+        <v>8166.0940375807522</v>
       </c>
       <c r="CM30" s="12">
-        <f t="shared" si="35"/>
-        <v>5541.2971738609622</v>
+        <f t="shared" si="44"/>
+        <v>8206.9245077686555</v>
       </c>
       <c r="CN30" s="12">
-        <f t="shared" si="35"/>
-        <v>5513.5906879916574</v>
+        <f t="shared" si="44"/>
+        <v>8247.9591303074976</v>
       </c>
       <c r="CO30" s="12">
-        <f t="shared" si="35"/>
-        <v>5486.0227345516987</v>
+        <f t="shared" si="44"/>
+        <v>8289.1989259590337</v>
       </c>
       <c r="CP30" s="12">
-        <f t="shared" si="35"/>
-        <v>5458.5926208789406</v>
+        <f t="shared" si="44"/>
+        <v>8330.6449205888275</v>
       </c>
       <c r="CQ30" s="12">
-        <f t="shared" si="35"/>
-        <v>5431.2996577745462</v>
+        <f t="shared" si="44"/>
+        <v>8372.2981451917713</v>
       </c>
       <c r="CR30" s="12">
-        <f t="shared" si="35"/>
-        <v>5404.1431594856731</v>
+        <f t="shared" si="44"/>
+        <v>8414.1596359177292</v>
       </c>
       <c r="CS30" s="12">
-        <f t="shared" si="35"/>
-        <v>5377.1224436882449</v>
+        <f t="shared" si="44"/>
+        <v>8456.2304340973169</v>
       </c>
       <c r="CT30" s="12">
-        <f t="shared" si="35"/>
-        <v>5350.2368314698033</v>
+        <f t="shared" si="44"/>
+        <v>8498.5115862678031</v>
       </c>
       <c r="CU30" s="12">
-        <f t="shared" si="35"/>
-        <v>5323.4856473124546</v>
+        <f t="shared" si="44"/>
+        <v>8541.0041441991416</v>
       </c>
       <c r="CV30" s="12">
-        <f t="shared" si="35"/>
-        <v>5296.8682190758927</v>
+        <f t="shared" si="44"/>
+        <v>8583.7091649201357</v>
       </c>
       <c r="CW30" s="12">
-        <f t="shared" si="35"/>
-        <v>5270.3838779805128</v>
+        <f t="shared" si="44"/>
+        <v>8626.6277107447349</v>
       </c>
       <c r="CX30" s="12">
-        <f t="shared" si="35"/>
-        <v>5244.03195859061</v>
+        <f t="shared" si="44"/>
+        <v>8669.7608492984582</v>
       </c>
       <c r="CY30" s="12">
-        <f t="shared" si="35"/>
-        <v>5217.8117987976566</v>
+        <f t="shared" si="44"/>
+        <v>8713.1096535449487</v>
       </c>
       <c r="CZ30" s="12">
-        <f t="shared" si="35"/>
-        <v>5191.7227398036684</v>
+        <f t="shared" si="44"/>
+        <v>8756.6752018126717</v>
       </c>
       <c r="DA30" s="12">
-        <f t="shared" si="35"/>
-        <v>5165.7641261046501</v>
+        <f t="shared" si="44"/>
+        <v>8800.4585778217333</v>
       </c>
       <c r="DB30" s="12">
-        <f t="shared" si="35"/>
-        <v>5139.9353054741268</v>
+        <f t="shared" si="44"/>
+        <v>8844.4608707108418</v>
       </c>
       <c r="DC30" s="12">
-        <f t="shared" si="35"/>
-        <v>5114.2356289467562</v>
+        <f t="shared" si="44"/>
+        <v>8888.683175064396</v>
       </c>
       <c r="DD30" s="12">
-        <f t="shared" si="35"/>
-        <v>5088.6644508020227</v>
+        <f t="shared" si="44"/>
+        <v>8933.1265909397171</v>
       </c>
       <c r="DE30" s="12">
-        <f t="shared" si="35"/>
-        <v>5063.2211285480125</v>
+        <f t="shared" si="44"/>
+        <v>8977.7922238944138</v>
       </c>
       <c r="DF30" s="12">
-        <f t="shared" si="35"/>
-        <v>5037.9050229052727</v>
+        <f t="shared" si="44"/>
+        <v>9022.6811850138856</v>
       </c>
       <c r="DG30" s="12">
-        <f t="shared" si="35"/>
-        <v>5012.7154977907467</v>
+        <f t="shared" si="44"/>
+        <v>9067.7945909389546</v>
       </c>
       <c r="DH30" s="12">
-        <f t="shared" si="35"/>
-        <v>4987.6519203017933</v>
+        <f t="shared" si="44"/>
+        <v>9113.1335638936489</v>
       </c>
       <c r="DI30" s="12">
-        <f t="shared" si="35"/>
-        <v>4962.713660700284</v>
+        <f t="shared" si="44"/>
+        <v>9158.6992317131153</v>
       </c>
       <c r="DJ30" s="12">
-        <f t="shared" si="35"/>
-        <v>4937.9000923967824</v>
+        <f t="shared" si="44"/>
+        <v>9204.4927278716805</v>
       </c>
       <c r="DK30" s="12">
-        <f t="shared" si="35"/>
-        <v>4913.2105919347987</v>
+        <f t="shared" si="44"/>
+        <v>9250.5151915110382</v>
       </c>
       <c r="DL30" s="12">
-        <f t="shared" si="35"/>
-        <v>4888.6445389751243</v>
+        <f t="shared" si="44"/>
+        <v>9296.7677674685929</v>
       </c>
       <c r="DM30" s="12">
-        <f t="shared" si="35"/>
-        <v>4864.2013162802486</v>
+        <f t="shared" si="44"/>
+        <v>9343.2516063059356</v>
       </c>
       <c r="DN30" s="12">
-        <f t="shared" si="35"/>
-        <v>4839.8803096988477</v>
+        <f t="shared" si="44"/>
+        <v>9389.9678643374646</v>
       </c>
       <c r="DO30" s="12">
-        <f t="shared" si="35"/>
-        <v>4815.6809081503534</v>
+        <f t="shared" si="44"/>
+        <v>9436.91770365915</v>
       </c>
       <c r="DP30" s="12">
-        <f t="shared" si="35"/>
-        <v>4791.6025036096016</v>
+        <f t="shared" si="44"/>
+        <v>9484.1022921774456</v>
       </c>
     </row>
     <row r="31" spans="1:120" x14ac:dyDescent="0.15">
@@ -4976,67 +5065,70 @@
         <f>E30/E32</f>
         <v>-2.6435850622406636</v>
       </c>
-      <c r="F31" s="45">
-        <f t="shared" ref="F31:H31" si="36">F30/F32</f>
-        <v>5.0477302904564786E-2</v>
+      <c r="F31" s="18">
+        <f>F30/F32</f>
+        <v>-1.4174614939107126</v>
       </c>
       <c r="G31" s="45">
-        <f t="shared" si="36"/>
-        <v>0.27914301732365143</v>
+        <f t="shared" ref="G31:H31" si="45">G30/G32</f>
+        <v>0.37522307408802374</v>
       </c>
       <c r="H31" s="45">
-        <f t="shared" si="36"/>
-        <v>0.68042150681301827</v>
+        <f t="shared" si="45"/>
+        <v>0.51741915991316523</v>
       </c>
       <c r="I31" s="45">
-        <f t="shared" ref="I31:L31" si="37">I30/I32</f>
-        <v>1.345532091344521</v>
+        <f t="shared" ref="I31:L31" si="46">I30/I32</f>
+        <v>0.68626746031832309</v>
       </c>
       <c r="J31" s="45">
-        <f t="shared" si="37"/>
-        <v>2.4076169126150941</v>
+        <f t="shared" si="46"/>
+        <v>0.88055521670978121</v>
       </c>
       <c r="K31" s="45">
-        <f t="shared" si="37"/>
-        <v>4.055307301517673</v>
+        <f t="shared" si="46"/>
+        <v>1.0956268227471708</v>
       </c>
       <c r="L31" s="45">
-        <f t="shared" si="37"/>
-        <v>5.9274951583904256</v>
+        <f t="shared" si="46"/>
+        <v>2.243923233886584</v>
       </c>
       <c r="M31" s="45">
-        <f t="shared" ref="M31:T31" si="38">M30/M32</f>
-        <v>8.0504964715574108</v>
+        <f t="shared" ref="M31:T31" si="47">M30/M32</f>
+        <v>3.5648411778245697</v>
       </c>
       <c r="N31" s="45">
-        <f t="shared" si="38"/>
-        <v>10.453462910898182</v>
+        <f t="shared" si="47"/>
+        <v>5.0795327654406384</v>
       </c>
       <c r="O31" s="45">
-        <f t="shared" si="38"/>
-        <v>13.168676590326081</v>
+        <f t="shared" si="47"/>
+        <v>6.8114873016745383</v>
       </c>
       <c r="P31" s="45">
-        <f t="shared" si="38"/>
-        <v>16.231874897664749</v>
+        <f t="shared" si="47"/>
+        <v>8.7867775728040307</v>
       </c>
       <c r="Q31" s="45">
-        <f t="shared" si="38"/>
-        <v>19.682608429769171</v>
+        <f t="shared" si="47"/>
+        <v>11.034331447252628</v>
       </c>
       <c r="R31" s="45">
-        <f t="shared" si="38"/>
-        <v>23.56463537613898</v>
+        <f t="shared" si="47"/>
+        <v>13.586231358038029</v>
       </c>
       <c r="S31" s="45">
-        <f t="shared" si="38"/>
-        <v>27.926356030297022</v>
+        <f t="shared" si="47"/>
+        <v>16.478044493725456</v>
       </c>
       <c r="T31" s="45">
-        <f t="shared" si="38"/>
-        <v>32.821291477921825</v>
-      </c>
-      <c r="U31" s="2"/>
+        <f t="shared" si="47"/>
+        <v>19.749186809480804</v>
+      </c>
+      <c r="U31" s="45">
+        <f t="shared" ref="U31" si="48">U30/U32</f>
+        <v>23.443324283128636</v>
+      </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -5158,66 +5250,69 @@
         <v>241</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" ref="F32" si="39">E32</f>
-        <v>241</v>
+        <f>Reports!U24</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" ref="G32" si="40">F32</f>
-        <v>241</v>
+        <f t="shared" ref="G32" si="49">F32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" ref="H32" si="41">G32</f>
-        <v>241</v>
+        <f t="shared" ref="H32" si="50">G32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" ref="I32" si="42">H32</f>
-        <v>241</v>
+        <f t="shared" ref="I32" si="51">H32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" ref="J32" si="43">I32</f>
-        <v>241</v>
+        <f t="shared" ref="J32" si="52">I32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="K32" s="14">
-        <f t="shared" ref="K32" si="44">J32</f>
-        <v>241</v>
+        <f t="shared" ref="K32" si="53">J32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="L32" s="14">
-        <f t="shared" ref="L32" si="45">K32</f>
-        <v>241</v>
+        <f t="shared" ref="L32" si="54">K32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="M32" s="14">
-        <f t="shared" ref="M32" si="46">L32</f>
-        <v>241</v>
+        <f t="shared" ref="M32" si="55">L32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="N32" s="14">
-        <f t="shared" ref="N32" si="47">M32</f>
-        <v>241</v>
+        <f t="shared" ref="N32" si="56">M32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="O32" s="14">
-        <f t="shared" ref="O32" si="48">N32</f>
-        <v>241</v>
+        <f t="shared" ref="O32" si="57">N32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="P32" s="14">
-        <f t="shared" ref="P32" si="49">O32</f>
-        <v>241</v>
+        <f t="shared" ref="P32" si="58">O32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="Q32" s="14">
-        <f t="shared" ref="Q32" si="50">P32</f>
-        <v>241</v>
+        <f t="shared" ref="Q32" si="59">P32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" ref="R32" si="51">Q32</f>
-        <v>241</v>
+        <f t="shared" ref="R32" si="60">Q32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="S32" s="14">
-        <f t="shared" ref="S32" si="52">R32</f>
-        <v>241</v>
+        <f t="shared" ref="S32" si="61">R32</f>
+        <v>246.90899999999999</v>
       </c>
       <c r="T32" s="14">
-        <f t="shared" ref="T32" si="53">S32</f>
-        <v>241</v>
-      </c>
-      <c r="U32" s="2"/>
+        <f t="shared" ref="T32:U32" si="62">S32</f>
+        <v>246.90899999999999</v>
+      </c>
+      <c r="U32" s="14">
+        <f t="shared" si="62"/>
+        <v>246.90899999999999</v>
+      </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -5338,7 +5433,7 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="2"/>
+      <c r="U33" s="14"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -5444,82 +5539,85 @@
         <v>19</v>
       </c>
       <c r="B34" s="25">
-        <f t="shared" ref="B34:T34" si="54">IFERROR(B21/B19,0)</f>
+        <f t="shared" ref="B34:T34" si="63">IFERROR(B21/B19,0)</f>
         <v>0.83419390974449625</v>
       </c>
       <c r="C34" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0.80778499716099728</v>
       </c>
       <c r="D34" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0.8032166314935435</v>
       </c>
       <c r="E34" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>0.82639497546964547</v>
       </c>
       <c r="F34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016916</v>
       </c>
       <c r="G34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016916</v>
       </c>
       <c r="H34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016916</v>
       </c>
       <c r="I34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016927</v>
       </c>
       <c r="J34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016927</v>
       </c>
       <c r="K34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016927</v>
       </c>
       <c r="L34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016916</v>
       </c>
       <c r="M34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016916</v>
       </c>
       <c r="N34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016916</v>
       </c>
       <c r="O34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016916</v>
       </c>
       <c r="P34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016916</v>
       </c>
       <c r="Q34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016916</v>
       </c>
       <c r="R34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016916</v>
       </c>
       <c r="S34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016916</v>
       </c>
       <c r="T34" s="25">
-        <f t="shared" si="54"/>
-        <v>0.82639497546964547</v>
-      </c>
-      <c r="U34" s="2"/>
+        <f t="shared" si="63"/>
+        <v>0.83345530347016927</v>
+      </c>
+      <c r="U34" s="25">
+        <f t="shared" ref="U34" si="64">IFERROR(U21/U19,0)</f>
+        <v>0.83345530347016927</v>
+      </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
@@ -5625,82 +5723,85 @@
         <v>20</v>
       </c>
       <c r="B35" s="28">
-        <f t="shared" ref="B35:T35" si="55">IFERROR(B26/B19,0)</f>
+        <f t="shared" ref="B35:T35" si="65">IFERROR(B26/B19,0)</f>
         <v>-1.2864888044843441E-2</v>
       </c>
       <c r="C35" s="28">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>-0.10176211737985869</v>
       </c>
       <c r="D35" s="28">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>-5.6370817399072688E-2</v>
       </c>
       <c r="E35" s="28">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>-5.1975108649768904E-2</v>
       </c>
       <c r="F35" s="28">
-        <f t="shared" si="55"/>
-        <v>-1.7143011959594608E-2</v>
+        <f t="shared" si="65"/>
+        <v>9.3048445794755869E-3</v>
       </c>
       <c r="G35" s="28">
-        <f t="shared" si="55"/>
-        <v>1.5436674658883801E-2</v>
+        <f t="shared" si="65"/>
+        <v>2.2359383929493121E-2</v>
       </c>
       <c r="H35" s="28">
-        <f t="shared" si="55"/>
-        <v>4.5891146599827716E-2</v>
+        <f t="shared" si="65"/>
+        <v>3.1876441189254159E-2</v>
       </c>
       <c r="I35" s="28">
-        <f t="shared" si="55"/>
-        <v>7.4340176638856406E-2</v>
+        <f t="shared" si="65"/>
+        <v>3.8257434831348143E-2</v>
       </c>
       <c r="J35" s="28">
-        <f t="shared" si="55"/>
-        <v>0.10089654452002776</v>
+        <f t="shared" si="65"/>
+        <v>4.1849873971756185E-2</v>
       </c>
       <c r="K35" s="28">
-        <f t="shared" si="55"/>
-        <v>0.1574690266372604</v>
+        <f t="shared" si="65"/>
+        <v>4.2954345830221577E-2</v>
       </c>
       <c r="L35" s="28">
-        <f t="shared" si="55"/>
-        <v>0.20889600167166297</v>
+        <f t="shared" si="65"/>
+        <v>9.4704332192040358E-2</v>
       </c>
       <c r="M35" s="28">
-        <f t="shared" si="55"/>
-        <v>0.2556921596495042</v>
+        <f t="shared" si="65"/>
+        <v>0.14237643284822238</v>
       </c>
       <c r="N35" s="28">
-        <f t="shared" si="55"/>
-        <v>0.29831816250414833</v>
+        <f t="shared" si="65"/>
+        <v>0.18634425499610907</v>
       </c>
       <c r="O35" s="28">
-        <f t="shared" si="55"/>
-        <v>0.33718644169028233</v>
+        <f t="shared" si="65"/>
+        <v>0.22694388745976182</v>
       </c>
       <c r="P35" s="28">
-        <f t="shared" si="55"/>
-        <v>0.37266636771111528</v>
+        <f t="shared" si="65"/>
+        <v>0.26447784638634131</v>
       </c>
       <c r="Q35" s="28">
-        <f t="shared" si="55"/>
-        <v>0.40508885987804771</v>
+        <f t="shared" si="65"/>
+        <v>0.29921859719456706</v>
       </c>
       <c r="R35" s="28">
-        <f t="shared" si="55"/>
-        <v>0.43475049717831471</v>
+        <f t="shared" si="65"/>
+        <v>0.33141169869813575</v>
       </c>
       <c r="S35" s="28">
-        <f t="shared" si="55"/>
-        <v>0.46191718449378805</v>
+        <f t="shared" si="65"/>
+        <v>0.3612786103310317</v>
       </c>
       <c r="T35" s="28">
-        <f t="shared" si="55"/>
-        <v>0.48682742250492633</v>
-      </c>
-      <c r="U35" s="2"/>
+        <f t="shared" si="65"/>
+        <v>0.38901919895011017</v>
+      </c>
+      <c r="U35" s="28">
+        <f t="shared" ref="U35" si="66">IFERROR(U26/U19,0)</f>
+        <v>0.41481397772378958</v>
+      </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -5806,82 +5907,85 @@
         <v>21</v>
       </c>
       <c r="B36" s="28">
-        <f t="shared" ref="B36:T36" si="56">IFERROR(B29/B28,0)</f>
+        <f t="shared" ref="B36:T36" si="67">IFERROR(B29/B28,0)</f>
         <v>1.8911758712044038</v>
       </c>
       <c r="C36" s="28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.28746731040032153</v>
       </c>
       <c r="D36" s="28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>-0.88117943302737645</v>
       </c>
       <c r="E36" s="28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>-5.3597356679576776E-2</v>
       </c>
       <c r="F36" s="28">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
+        <v>-1.4493425782065248E-2</v>
+      </c>
+      <c r="G36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="G36" s="28">
-        <f t="shared" si="56"/>
+      <c r="H36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="H36" s="28">
-        <f t="shared" si="56"/>
+      <c r="I36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="I36" s="28">
-        <f t="shared" si="56"/>
+      <c r="J36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="J36" s="28">
-        <f t="shared" si="56"/>
+      <c r="K36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="K36" s="28">
-        <f t="shared" si="56"/>
+      <c r="L36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="L36" s="28">
-        <f t="shared" si="56"/>
+      <c r="M36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="M36" s="28">
-        <f t="shared" si="56"/>
+      <c r="N36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="N36" s="28">
-        <f t="shared" si="56"/>
+      <c r="O36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="O36" s="28">
-        <f t="shared" si="56"/>
+      <c r="P36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="P36" s="28">
-        <f t="shared" si="56"/>
+      <c r="Q36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="Q36" s="28">
-        <f t="shared" si="56"/>
+      <c r="R36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="R36" s="28">
-        <f t="shared" si="56"/>
+      <c r="S36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="S36" s="28">
-        <f t="shared" si="56"/>
+      <c r="T36" s="28">
+        <f t="shared" si="67"/>
         <v>0.15</v>
       </c>
-      <c r="T36" s="28">
-        <f t="shared" si="56"/>
+      <c r="U36" s="28">
+        <f t="shared" ref="U36" si="68">IFERROR(U29/U28,0)</f>
         <v>0.15</v>
       </c>
-      <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -6002,7 +6106,7 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
-      <c r="U37" s="2"/>
+      <c r="U37" s="8"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -6109,78 +6213,81 @@
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="49">
-        <f t="shared" ref="C38:T38" si="57">C19/B19-1</f>
+        <f t="shared" ref="C38:U38" si="69">C19/B19-1</f>
         <v>0.35636177465442032</v>
       </c>
       <c r="D38" s="49">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0.41557193000567816</v>
       </c>
       <c r="E38" s="49">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0.3794332948935919</v>
       </c>
       <c r="F38" s="49">
-        <f t="shared" si="57"/>
-        <v>0.38000000000000012</v>
+        <f t="shared" si="69"/>
+        <v>0.33310891576576096</v>
       </c>
       <c r="G38" s="49">
-        <f t="shared" si="57"/>
-        <v>0.37999999999999989</v>
+        <f t="shared" si="69"/>
+        <v>0.2649999999999999</v>
       </c>
       <c r="H38" s="49">
-        <f t="shared" si="57"/>
-        <v>0.37999999999999967</v>
+        <f t="shared" si="69"/>
+        <v>0.26500000000000012</v>
       </c>
       <c r="I38" s="49">
-        <f t="shared" si="57"/>
-        <v>0.37999999999999989</v>
+        <f t="shared" si="69"/>
+        <v>0.26499999999999968</v>
       </c>
       <c r="J38" s="49">
-        <f t="shared" si="57"/>
-        <v>0.37999999999999989</v>
+        <f t="shared" si="69"/>
+        <v>0.26500000000000012</v>
       </c>
       <c r="K38" s="49">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
+        <v>0.26500000000000012</v>
+      </c>
+      <c r="L38" s="49">
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L38" s="49">
-        <f t="shared" si="57"/>
+      <c r="M38" s="49">
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M38" s="49">
-        <f t="shared" si="57"/>
+      <c r="N38" s="49">
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N38" s="49">
-        <f t="shared" si="57"/>
+      <c r="O38" s="49">
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O38" s="49">
-        <f t="shared" si="57"/>
+      <c r="P38" s="49">
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P38" s="49">
-        <f t="shared" si="57"/>
+      <c r="Q38" s="49">
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q38" s="49">
-        <f t="shared" si="57"/>
+      <c r="R38" s="49">
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R38" s="49">
-        <f t="shared" si="57"/>
+      <c r="S38" s="49">
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S38" s="49">
-        <f t="shared" si="57"/>
+      <c r="T38" s="49">
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T38" s="49">
-        <f t="shared" si="57"/>
+      <c r="U38" s="49">
+        <f t="shared" si="69"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -6287,78 +6394,81 @@
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="28">
-        <f t="shared" ref="C39:T39" si="58">C22/B22-1</f>
+        <f t="shared" ref="C39:U39" si="70">C22/B22-1</f>
         <v>0.48900655766036505</v>
       </c>
       <c r="D39" s="28">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0.34048212426128965</v>
       </c>
       <c r="E39" s="28">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0.39212701069806832</v>
       </c>
       <c r="F39" s="28">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
+        <v>0.31821503663532091</v>
+      </c>
+      <c r="G39" s="28">
+        <f t="shared" si="70"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G39" s="28">
-        <f t="shared" si="58"/>
+      <c r="H39" s="28">
+        <f t="shared" si="70"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H39" s="28">
-        <f t="shared" si="58"/>
-        <v>0.29999999999999982</v>
-      </c>
       <c r="I39" s="28">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J39" s="28">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K39" s="28">
-        <f t="shared" si="58"/>
+        <f t="shared" si="70"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L39" s="28">
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="L39" s="28">
-        <f t="shared" si="58"/>
+      <c r="M39" s="28">
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="M39" s="28">
-        <f t="shared" si="58"/>
+      <c r="N39" s="28">
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N39" s="28">
-        <f t="shared" si="58"/>
+      <c r="O39" s="28">
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O39" s="28">
-        <f t="shared" si="58"/>
+      <c r="P39" s="28">
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P39" s="28">
-        <f t="shared" si="58"/>
+      <c r="Q39" s="28">
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q39" s="28">
-        <f t="shared" si="58"/>
+      <c r="R39" s="28">
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R39" s="28">
-        <f t="shared" si="58"/>
+      <c r="S39" s="28">
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S39" s="28">
-        <f t="shared" si="58"/>
+      <c r="T39" s="28">
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="T39" s="28">
-        <f t="shared" si="58"/>
+      <c r="U39" s="28">
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -6465,78 +6575,81 @@
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="28">
-        <f t="shared" ref="C40:T40" si="59">C23/B23-1</f>
+        <f t="shared" ref="C40:U40" si="71">C23/B23-1</f>
         <v>0.44455033140238354</v>
       </c>
       <c r="D40" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.38853885610934835</v>
       </c>
       <c r="E40" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>0.43470439076471368</v>
       </c>
       <c r="F40" s="28">
-        <f t="shared" si="59"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="71"/>
+        <v>0.11253330158210439</v>
       </c>
       <c r="G40" s="28">
-        <f t="shared" si="59"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="71"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="H40" s="28">
-        <f t="shared" si="59"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="71"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="I40" s="28">
-        <f t="shared" si="59"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="71"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="J40" s="28">
-        <f t="shared" si="59"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="71"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="K40" s="28">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="L40" s="28">
+        <f t="shared" si="71"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="L40" s="28">
-        <f t="shared" si="59"/>
+      <c r="M40" s="28">
+        <f t="shared" si="71"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="M40" s="28">
-        <f t="shared" si="59"/>
+      <c r="N40" s="28">
+        <f t="shared" si="71"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="O40" s="28">
+        <f t="shared" si="71"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="P40" s="28">
+        <f t="shared" si="71"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="Q40" s="28">
+        <f t="shared" si="71"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="R40" s="28">
+        <f t="shared" si="71"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="S40" s="28">
+        <f t="shared" si="71"/>
         <v>-1.9999999999999907E-2</v>
       </c>
-      <c r="N40" s="28">
-        <f t="shared" si="59"/>
-        <v>-2.0000000000000129E-2</v>
-      </c>
-      <c r="O40" s="28">
-        <f t="shared" si="59"/>
+      <c r="T40" s="28">
+        <f t="shared" si="71"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="P40" s="28">
-        <f t="shared" si="59"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="Q40" s="28">
-        <f t="shared" si="59"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="R40" s="28">
-        <f t="shared" si="59"/>
+      <c r="U40" s="28">
+        <f t="shared" si="71"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="S40" s="28">
-        <f t="shared" si="59"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="T40" s="28">
-        <f t="shared" si="59"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -6643,78 +6756,81 @@
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="28">
-        <f t="shared" ref="C41:T41" si="60">C24/B24-1</f>
+        <f t="shared" ref="C41:U41" si="72">C24/B24-1</f>
         <v>0.38996934166491126</v>
       </c>
       <c r="D41" s="28">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>0.27325228987068972</v>
       </c>
       <c r="E41" s="28">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
         <v>0.42641594266143024</v>
       </c>
       <c r="F41" s="28">
-        <f t="shared" si="60"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="72"/>
+        <v>0.24227057394754636</v>
       </c>
       <c r="G41" s="28">
-        <f t="shared" si="60"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="72"/>
+        <v>0.25</v>
       </c>
       <c r="H41" s="28">
-        <f t="shared" si="60"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="72"/>
+        <v>0.25</v>
       </c>
       <c r="I41" s="28">
-        <f t="shared" si="60"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="72"/>
+        <v>0.25</v>
       </c>
       <c r="J41" s="28">
-        <f t="shared" si="60"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="72"/>
+        <v>0.25</v>
       </c>
       <c r="K41" s="28">
-        <f t="shared" si="60"/>
+        <f t="shared" si="72"/>
+        <v>0.25</v>
+      </c>
+      <c r="L41" s="28">
+        <f t="shared" si="72"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="M41" s="28">
+        <f t="shared" si="72"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="N41" s="28">
+        <f t="shared" si="72"/>
         <v>-2.0000000000000129E-2</v>
       </c>
-      <c r="L41" s="28">
-        <f t="shared" si="60"/>
+      <c r="O41" s="28">
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="M41" s="28">
-        <f t="shared" si="60"/>
+      <c r="P41" s="28">
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="N41" s="28">
-        <f t="shared" si="60"/>
+      <c r="Q41" s="28">
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="O41" s="28">
-        <f t="shared" si="60"/>
+      <c r="R41" s="28">
+        <f t="shared" si="72"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="S41" s="28">
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="P41" s="28">
-        <f t="shared" si="60"/>
+      <c r="T41" s="28">
+        <f t="shared" si="72"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="U41" s="28">
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="Q41" s="28">
-        <f t="shared" si="60"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="R41" s="28">
-        <f t="shared" si="60"/>
-        <v>-2.0000000000000129E-2</v>
-      </c>
-      <c r="S41" s="28">
-        <f t="shared" si="60"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="T41" s="28">
-        <f t="shared" si="60"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -6835,7 +6951,7 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
-      <c r="U42" s="2"/>
+      <c r="U42" s="8"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -6952,67 +7068,70 @@
         <f>E44-E45</f>
         <v>859</v>
       </c>
-      <c r="F43" s="31">
-        <f>E43+F30</f>
-        <v>871.16503000000012</v>
+      <c r="F43" s="12">
+        <f>F44-F45</f>
+        <v>1267</v>
       </c>
       <c r="G43" s="31">
-        <f t="shared" ref="G43:T43" si="61">F43+G30</f>
-        <v>938.43849717500007</v>
+        <f t="shared" ref="G43:U43" si="73">F43+G30</f>
+        <v>1359.6459539999998</v>
       </c>
       <c r="H43" s="31">
-        <f t="shared" si="61"/>
-        <v>1102.4200803169374</v>
+        <f t="shared" si="73"/>
+        <v>1487.4014013549995</v>
       </c>
       <c r="I43" s="31">
-        <f t="shared" si="61"/>
-        <v>1426.693314330967</v>
+        <f t="shared" si="73"/>
+        <v>1656.8470137147362</v>
       </c>
       <c r="J43" s="31">
-        <f t="shared" si="61"/>
-        <v>2006.9289902712048</v>
+        <f t="shared" si="73"/>
+        <v>1874.2640217173316</v>
       </c>
       <c r="K43" s="31">
-        <f t="shared" si="61"/>
-        <v>2984.2580499369642</v>
+        <f t="shared" si="73"/>
+        <v>2144.784144895013</v>
       </c>
       <c r="L43" s="31">
-        <f t="shared" si="61"/>
-        <v>4412.7843831090568</v>
+        <f t="shared" si="73"/>
+        <v>2698.8289866507157</v>
       </c>
       <c r="M43" s="31">
-        <f t="shared" si="61"/>
-        <v>6352.9540327543928</v>
+        <f t="shared" si="73"/>
+        <v>3579.0203570262024</v>
       </c>
       <c r="N43" s="31">
-        <f t="shared" si="61"/>
-        <v>8872.2385942808542</v>
+        <f t="shared" si="73"/>
+        <v>4833.2027126083849</v>
       </c>
       <c r="O43" s="31">
-        <f t="shared" si="61"/>
-        <v>12045.88965254944</v>
+        <f t="shared" si="73"/>
+        <v>6515.0202307775435</v>
       </c>
       <c r="P43" s="31">
-        <f t="shared" si="61"/>
-        <v>15957.771502886644</v>
+        <f t="shared" si="73"/>
+        <v>8684.5546945010137</v>
       </c>
       <c r="Q43" s="31">
-        <f t="shared" si="61"/>
-        <v>20701.280134461012</v>
+        <f t="shared" si="73"/>
+        <v>11409.030437810712</v>
       </c>
       <c r="R43" s="31">
-        <f t="shared" si="61"/>
-        <v>26380.357260110508</v>
+        <f t="shared" si="73"/>
+        <v>14763.593236192524</v>
       </c>
       <c r="S43" s="31">
-        <f t="shared" si="61"/>
-        <v>33110.609063412092</v>
+        <f t="shared" si="73"/>
+        <v>18832.170724093783</v>
       </c>
       <c r="T43" s="31">
-        <f t="shared" si="61"/>
-        <v>41020.540309591248</v>
-      </c>
-      <c r="U43" s="2"/>
+        <f t="shared" si="73"/>
+        <v>23708.422690035877</v>
+      </c>
+      <c r="U43" s="31">
+        <f t="shared" si="73"/>
+        <v>29496.790445458886</v>
+      </c>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -7129,6 +7248,10 @@
         <f>Reports!Q36</f>
         <v>1713</v>
       </c>
+      <c r="F44" s="44">
+        <f>Reports!U36</f>
+        <v>2156</v>
+      </c>
     </row>
     <row r="45" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
@@ -7145,6 +7268,10 @@
       <c r="E45" s="44">
         <f>Reports!Q37</f>
         <v>854</v>
+      </c>
+      <c r="F45" s="44">
+        <f>Reports!U37</f>
+        <v>889</v>
       </c>
     </row>
     <row r="46" spans="1:120" x14ac:dyDescent="0.15">
@@ -7167,7 +7294,7 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
-      <c r="U46" s="2"/>
+      <c r="U46" s="8"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -7284,6 +7411,10 @@
         <f>Reports!Q39</f>
         <v>760</v>
       </c>
+      <c r="F47" s="44">
+        <f>Reports!U39</f>
+        <v>775</v>
+      </c>
     </row>
     <row r="48" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A48" s="44" t="s">
@@ -7301,8 +7432,12 @@
         <f>Reports!Q40</f>
         <v>2977</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F48" s="44">
+        <f>Reports!U40</f>
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="44" t="s">
         <v>70</v>
       </c>
@@ -7318,8 +7453,12 @@
         <f>Reports!Q41</f>
         <v>2412</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F49" s="44">
+        <f>Reports!U41</f>
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>71</v>
       </c>
@@ -7335,8 +7474,12 @@
         <f>E48-E47-E44</f>
         <v>504</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F51" s="66">
+        <f>F48-F47-F44</f>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>72</v>
       </c>
@@ -7352,8 +7495,12 @@
         <f>E48-E49</f>
         <v>565</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F52" s="66">
+        <f>F48-F49</f>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>73</v>
       </c>
@@ -7365,8 +7512,12 @@
         <f>E30/E52</f>
         <v>-1.1276176991150442</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F54" s="43">
+        <f>F30/F52</f>
+        <v>-0.6086678260869568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>74</v>
       </c>
@@ -7378,8 +7529,12 @@
         <f>E30/E48</f>
         <v>-0.21400873362445413</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F55" s="43">
+        <f>F30/F48</f>
+        <v>-8.9877760657421715E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>75</v>
       </c>
@@ -7391,8 +7546,12 @@
         <f>E30/(E52-E47)</f>
         <v>3.2671999999999994</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F56" s="43">
+        <f>F30/(F52-F47)</f>
+        <v>1.7499200000000008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>76</v>
       </c>
@@ -7404,156 +7563,176 @@
         <f>E30/E51</f>
         <v>-1.2640952380952379</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F57" s="43">
+        <f>F30/F51</f>
+        <v>-0.36343094496365541</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="43">
-        <f t="shared" ref="C59:D62" si="62">C11/B11-1</f>
+        <f t="shared" ref="C59:D62" si="74">C11/B11-1</f>
         <v>0.65095902740370515</v>
       </c>
       <c r="D59" s="43">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>0.68149904182911536</v>
       </c>
       <c r="E59" s="43">
-        <f t="shared" ref="E59:J59" si="63">E11/D11-1</f>
+        <f t="shared" ref="E59:K59" si="75">E11/D11-1</f>
         <v>0.55729261331538682</v>
       </c>
       <c r="F59" s="43">
-        <f t="shared" si="63"/>
-        <v>0.5</v>
+        <f t="shared" si="75"/>
+        <v>0.46894562270418083</v>
       </c>
       <c r="G59" s="43">
-        <f t="shared" si="63"/>
-        <v>0.5</v>
+        <f t="shared" si="75"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="H59" s="43">
-        <f t="shared" si="63"/>
-        <v>0.50000000000000022</v>
+        <f t="shared" si="75"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="I59" s="43">
-        <f t="shared" si="63"/>
-        <v>0.5</v>
+        <f t="shared" si="75"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="J59" s="43">
-        <f t="shared" si="63"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+        <f t="shared" si="75"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="K59" s="43">
+        <f t="shared" si="75"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C60" s="43">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>0.21326674221377373</v>
       </c>
       <c r="D60" s="43">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>0.2275074287909431</v>
       </c>
       <c r="E60" s="43">
-        <f t="shared" ref="E60:J60" si="64">E12/D12-1</f>
+        <f t="shared" ref="E60:K60" si="76">E12/D12-1</f>
         <v>0.21118096272501075</v>
       </c>
       <c r="F60" s="43">
-        <f t="shared" si="64"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="76"/>
+        <v>0.1887734035196158</v>
       </c>
       <c r="G60" s="43">
-        <f t="shared" si="64"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="76"/>
+        <v>0.17999999999999994</v>
       </c>
       <c r="H60" s="43">
-        <f t="shared" si="64"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="76"/>
+        <v>0.17999999999999994</v>
       </c>
       <c r="I60" s="43">
-        <f t="shared" si="64"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="76"/>
+        <v>0.17999999999999994</v>
       </c>
       <c r="J60" s="43">
-        <f t="shared" si="64"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+        <f t="shared" si="76"/>
+        <v>0.17999999999999994</v>
+      </c>
+      <c r="K60" s="43">
+        <f t="shared" si="76"/>
+        <v>0.17999999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C61" s="43">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>0.13862293279582216</v>
       </c>
       <c r="D61" s="43">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>0.13564004559780041</v>
       </c>
       <c r="E61" s="43">
-        <f t="shared" ref="E61:J61" si="65">E13/D13-1</f>
+        <f t="shared" ref="E61:K61" si="77">E13/D13-1</f>
         <v>0.10734656762597594</v>
       </c>
       <c r="F61" s="43">
-        <f t="shared" si="65"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="77"/>
+        <v>1.7585769284091723E-2</v>
       </c>
       <c r="G61" s="43">
-        <f t="shared" si="65"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="77"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="H61" s="43">
-        <f t="shared" si="65"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="77"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="I61" s="43">
-        <f t="shared" si="65"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="77"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J61" s="43">
-        <f t="shared" si="65"/>
-        <v>0.10000000000000009</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+        <f t="shared" si="77"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="K61" s="43">
+        <f t="shared" si="77"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C62" s="43">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>0.44728360957642699</v>
       </c>
       <c r="D62" s="43">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>0.58575897354329065</v>
       </c>
       <c r="E62" s="43">
-        <f t="shared" ref="E62:J62" si="66">E14/D14-1</f>
+        <f t="shared" ref="E62:K62" si="78">E14/D14-1</f>
         <v>0.47079474405697286</v>
       </c>
       <c r="F62" s="43">
-        <f t="shared" si="66"/>
-        <v>0.44999999999999996</v>
+        <f t="shared" si="78"/>
+        <v>0.33809956808365538</v>
       </c>
       <c r="G62" s="43">
-        <f t="shared" si="66"/>
-        <v>0.44999999999999996</v>
+        <f t="shared" si="78"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H62" s="43">
-        <f t="shared" si="66"/>
-        <v>0.45000000000000018</v>
+        <f t="shared" si="78"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I62" s="43">
-        <f t="shared" si="66"/>
-        <v>0.44999999999999996</v>
+        <f t="shared" si="78"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J62" s="43">
-        <f t="shared" si="66"/>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+        <f t="shared" si="78"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K62" s="43">
+        <f t="shared" si="78"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="44" t="s">
         <v>81</v>
       </c>
@@ -7569,8 +7748,32 @@
         <f>Reports!Q57</f>
         <v>152727</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="44">
+        <f>Reports!U57</f>
+        <v>174097</v>
+      </c>
+      <c r="G64" s="44">
+        <f>G16*1000000</f>
+        <v>200211.55</v>
+      </c>
+      <c r="H64" s="44">
+        <f>H16*1000000</f>
+        <v>230243.28249999997</v>
+      </c>
+      <c r="I64" s="44">
+        <f>I16*1000000</f>
+        <v>264779.77487499994</v>
+      </c>
+      <c r="J64" s="44">
+        <f>J16*1000000</f>
+        <v>304496.74110624992</v>
+      </c>
+      <c r="K64" s="44">
+        <f>K16*1000000</f>
+        <v>350171.25227218738</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="43" t="s">
         <v>88</v>
       </c>
@@ -7579,31 +7782,35 @@
         <v>0.40968432376704733</v>
       </c>
       <c r="E65" s="43">
-        <f t="shared" ref="E65:J65" si="67">E16/D16-1</f>
+        <f t="shared" ref="E65:K65" si="79">E16/D16-1</f>
         <v>0.21408470857578954</v>
       </c>
       <c r="F65" s="43">
-        <f t="shared" si="67"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="79"/>
+        <v>0.13992286890988503</v>
       </c>
       <c r="G65" s="43">
-        <f t="shared" si="67"/>
-        <v>0.19999999999999996</v>
+        <f>G16/F16-1</f>
+        <v>0.14999999999999991</v>
       </c>
       <c r="H65" s="43">
-        <f t="shared" si="67"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="79"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="I65" s="43">
-        <f t="shared" si="67"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="79"/>
+        <v>0.14999999999999969</v>
       </c>
       <c r="J65" s="43">
-        <f t="shared" si="67"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="79"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="K65" s="43">
+        <f t="shared" si="79"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="34" t="s">
         <v>115</v>
       </c>
@@ -7612,28 +7819,32 @@
         <v>4.1765423218282915E-3</v>
       </c>
       <c r="E67" s="43">
-        <f t="shared" ref="E67:J67" si="68">E17/D17-1</f>
+        <f t="shared" ref="E67:K67" si="80">E17/D17-1</f>
         <v>0.13619196844326331</v>
       </c>
       <c r="F67" s="43">
-        <f t="shared" si="68"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="80"/>
+        <v>0.16947291095284434</v>
       </c>
       <c r="G67" s="43">
-        <f t="shared" si="68"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="80"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="H67" s="43">
-        <f t="shared" si="68"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="80"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="I67" s="43">
-        <f t="shared" si="68"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="80"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="J67" s="43">
-        <f t="shared" si="68"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="80"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="K67" s="43">
+        <f t="shared" si="80"/>
+        <v>0.10000000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -7653,18 +7864,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U60"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="P21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O66" sqref="O66"/>
+      <selection pane="bottomRight" activeCell="X51" sqref="X51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="73" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="7" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="2" customWidth="1"/>
@@ -7677,11 +7888,13 @@
     <col min="16" max="16" width="10.83203125" style="51"/>
     <col min="17" max="17" width="10.83203125" style="2"/>
     <col min="18" max="18" width="10.83203125" style="9"/>
-    <col min="19" max="16384" width="10.83203125" style="4"/>
+    <col min="19" max="21" width="10.83203125" style="4"/>
+    <col min="22" max="22" width="10.83203125" style="9"/>
+    <col min="23" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="77" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -7733,20 +7946,32 @@
         <v>85</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="U1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
+      <c r="W1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2" s="77"/>
       <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
@@ -7795,21 +8020,24 @@
       <c r="Q2" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="T2" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="U2" s="51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
+      <c r="R2" s="74">
+        <v>43738</v>
+      </c>
+      <c r="S2" s="75">
+        <v>43830</v>
+      </c>
+      <c r="T2" s="76">
+        <v>43921</v>
+      </c>
+      <c r="U2" s="76">
+        <v>44012</v>
+      </c>
+      <c r="V2" s="82">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="78" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="3">
@@ -7866,9 +8094,18 @@
       <c r="S3" s="53">
         <v>228.684</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44" t="s">
+      <c r="T3" s="44">
+        <v>244.155</v>
+      </c>
+      <c r="U3" s="44">
+        <v>257.52100000000002</v>
+      </c>
+      <c r="V3" s="83">
+        <v>277.964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="3">
@@ -7925,9 +8162,18 @@
       <c r="S4" s="53">
         <v>116.877</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44" t="s">
+      <c r="T4" s="44">
+        <v>119.628</v>
+      </c>
+      <c r="U4" s="44">
+        <v>122.774</v>
+      </c>
+      <c r="V4" s="83">
+        <v>127.694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="78" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="3">
@@ -7984,9 +8230,18 @@
       <c r="S5" s="53">
         <v>29.050999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44" t="s">
+      <c r="T5" s="44">
+        <v>21.001999999999999</v>
+      </c>
+      <c r="U5" s="44">
+        <v>20.364999999999998</v>
+      </c>
+      <c r="V5" s="83">
+        <v>22.137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="78" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="3">
@@ -8043,8 +8298,18 @@
       <c r="S6" s="53">
         <v>34.113</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T6" s="44">
+        <v>26.797000000000001</v>
+      </c>
+      <c r="U6" s="44">
+        <v>29.815999999999999</v>
+      </c>
+      <c r="V6" s="83">
+        <v>31.710999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="78"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8063,9 +8328,10 @@
       <c r="Q7" s="53"/>
       <c r="R7" s="5"/>
       <c r="S7" s="53"/>
-    </row>
-    <row r="8" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
+      <c r="V7" s="83"/>
+    </row>
+    <row r="8" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="3"/>
@@ -8122,9 +8388,21 @@
         <f>S57/1000000</f>
         <v>0.16478999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="44" t="s">
+      <c r="T8" s="59">
+        <f>T57/1000000</f>
+        <v>0.17105100000000001</v>
+      </c>
+      <c r="U8" s="59">
+        <f>U57/1000000</f>
+        <v>0.174097</v>
+      </c>
+      <c r="V8" s="60">
+        <f>V57/1000000</f>
+        <v>0.18271699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="78" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="3"/>
@@ -8174,15 +8452,28 @@
         <v>2193.4562978386271</v>
       </c>
       <c r="R9" s="16">
-        <f t="shared" ref="R9:S9" si="3">SUM(R3:R6)/R8</f>
+        <f t="shared" ref="R9:U9" si="3">SUM(R3:R6)/R8</f>
         <v>2271.7742995362573</v>
       </c>
       <c r="S9" s="17">
         <f t="shared" si="3"/>
         <v>2480.2779294860125</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="T9" s="17">
+        <f t="shared" si="3"/>
+        <v>2406.1946437027555</v>
+      </c>
+      <c r="U9" s="17">
+        <f t="shared" si="3"/>
+        <v>2472.6215845189749</v>
+      </c>
+      <c r="V9" s="16">
+        <f t="shared" ref="V9" si="4">SUM(V3:V6)/V8</f>
+        <v>2514.8508348976834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="79"/>
       <c r="F10" s="69"/>
       <c r="I10" s="70"/>
       <c r="J10" s="69"/>
@@ -8194,75 +8485,81 @@
       <c r="P10" s="64"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="69"/>
-      <c r="S10" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="T10" s="68" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="S10" s="64">
+        <v>390</v>
+      </c>
+      <c r="T10" s="68">
+        <v>395</v>
+      </c>
+      <c r="V10" s="69">
+        <v>445</v>
+      </c>
+      <c r="W10" s="68">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="80" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="12">
-        <f t="shared" ref="B11:G11" si="4">SUM(B3:B6)</f>
+        <f t="shared" ref="B11:G11" si="5">SUM(B3:B6)</f>
         <v>101.822</v>
       </c>
       <c r="C11" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109.706</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>117.94200000000001</v>
       </c>
       <c r="E11" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>127.58799999999999</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>136.78700000000001</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>148.90899999999999</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" ref="H11:P11" si="5">H8*H9</f>
+        <f t="shared" ref="H11:P11" si="6">H8*H9</f>
         <v>159.90900000000002</v>
       </c>
       <c r="I11" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>174.33099999999999</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>195.48000000000002</v>
       </c>
       <c r="K11" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>214.57799999999997</v>
       </c>
       <c r="L11" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>223.72300000000001</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>243.78300000000002</v>
       </c>
       <c r="N11" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>267.29199999999997</v>
       </c>
       <c r="O11" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>298.97900000000004</v>
       </c>
       <c r="P11" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>309.27</v>
       </c>
       <c r="Q11" s="12">
@@ -8270,16 +8567,31 @@
         <v>335</v>
       </c>
       <c r="R11" s="13">
-        <f t="shared" ref="R11:S11" si="6">R8*R9</f>
+        <f t="shared" ref="R11:V11" si="7">R8*R9</f>
         <v>363</v>
       </c>
       <c r="S11" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>408.72499999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="T11" s="12">
+        <f t="shared" si="7"/>
+        <v>411.58200000000005</v>
+      </c>
+      <c r="U11" s="12">
+        <f t="shared" si="7"/>
+        <v>430.476</v>
+      </c>
+      <c r="V11" s="13">
+        <f t="shared" si="7"/>
+        <v>459.50599999999997</v>
+      </c>
+      <c r="W11" s="11">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="78" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="14">
@@ -8336,9 +8648,18 @@
       <c r="S12" s="53">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="T12" s="44">
+        <v>70.655000000000001</v>
+      </c>
+      <c r="U12" s="44">
+        <v>70.111999999999995</v>
+      </c>
+      <c r="V12" s="83">
+        <v>73.683999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A13" s="73" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="15">
@@ -8362,27 +8683,27 @@
         <v>114.22500000000001</v>
       </c>
       <c r="G13" s="17">
-        <f t="shared" ref="G13:K13" si="7">G11-G12</f>
+        <f t="shared" ref="G13:K13" si="8">G11-G12</f>
         <v>122.00999999999999</v>
       </c>
       <c r="H13" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>127.01400000000001</v>
       </c>
       <c r="I13" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>137.52599999999998</v>
       </c>
       <c r="J13" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>155.39000000000001</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>171.41399999999999</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" ref="L13" si="8">L11-L12</f>
+        <f t="shared" ref="L13" si="9">L11-L12</f>
         <v>178.483</v>
       </c>
       <c r="M13" s="15">
@@ -8390,32 +8711,44 @@
         <v>199.58700000000002</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" ref="N13:Q13" si="9">N11-N12</f>
+        <f t="shared" ref="N13:Q13" si="10">N11-N12</f>
         <v>222.10699999999997</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>249.19700000000006</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>255.08099999999999</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>274</v>
       </c>
       <c r="R13" s="16">
-        <f t="shared" ref="R13:S13" si="10">R11-R12</f>
+        <f t="shared" ref="R13:V13" si="11">R11-R12</f>
         <v>301</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>342.72499999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="T13" s="15">
+        <f t="shared" si="11"/>
+        <v>340.92700000000002</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="11"/>
+        <v>360.36400000000003</v>
+      </c>
+      <c r="V13" s="16">
+        <f t="shared" si="11"/>
+        <v>385.822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A14" s="73" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="14">
@@ -8472,9 +8805,18 @@
       <c r="S14" s="53">
         <v>172</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+      <c r="T14" s="4">
+        <v>204</v>
+      </c>
+      <c r="U14" s="4">
+        <v>211</v>
+      </c>
+      <c r="V14" s="9">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A15" s="73" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="14">
@@ -8531,9 +8873,18 @@
       <c r="S15" s="53">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+      <c r="T15" s="4">
+        <v>84</v>
+      </c>
+      <c r="U15" s="4">
+        <v>78</v>
+      </c>
+      <c r="V15" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A16" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="14">
@@ -8590,9 +8941,18 @@
       <c r="S16" s="53">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="T16" s="4">
+        <v>72</v>
+      </c>
+      <c r="U16" s="4">
+        <v>75</v>
+      </c>
+      <c r="V16" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A17" s="73" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="15">
@@ -8616,60 +8976,72 @@
         <v>119.35300000000001</v>
       </c>
       <c r="G17" s="17">
-        <f t="shared" ref="G17:K17" si="11">SUM(G14:G16)</f>
+        <f t="shared" ref="G17:K17" si="12">SUM(G14:G16)</f>
         <v>124.649</v>
       </c>
       <c r="H17" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>150.077</v>
       </c>
       <c r="I17" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>169.78200000000001</v>
       </c>
       <c r="J17" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>175.679</v>
       </c>
       <c r="K17" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>184.42699999999999</v>
       </c>
       <c r="L17" s="15">
-        <f t="shared" ref="L17" si="12">SUM(L14:L16)</f>
+        <f t="shared" ref="L17" si="13">SUM(L14:L16)</f>
         <v>189.363</v>
       </c>
       <c r="M17" s="15">
-        <f t="shared" ref="M17:S17" si="13">SUM(M14:M16)</f>
+        <f t="shared" ref="M17:S17" si="14">SUM(M14:M16)</f>
         <v>204.874</v>
       </c>
       <c r="N17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>222.29899999999998</v>
       </c>
       <c r="O17" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>252.36600000000001</v>
       </c>
       <c r="P17" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>282.63799999999998</v>
       </c>
       <c r="Q17" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>306</v>
       </c>
       <c r="R17" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>306</v>
       </c>
       <c r="S17" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+      <c r="T17" s="15">
+        <f t="shared" ref="T17:U17" si="15">SUM(T14:T16)</f>
+        <v>360</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="15"/>
+        <v>364</v>
+      </c>
+      <c r="V17" s="16">
+        <f t="shared" ref="V17" si="16">SUM(V14:V16)</f>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A18" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="15">
@@ -8693,15 +9065,15 @@
         <v>-5.1280000000000001</v>
       </c>
       <c r="G18" s="17">
-        <f t="shared" ref="G18" si="14">G13-G17</f>
+        <f t="shared" ref="G18" si="17">G13-G17</f>
         <v>-2.63900000000001</v>
       </c>
       <c r="H18" s="17">
-        <f t="shared" ref="H18:K18" si="15">H13-H17</f>
+        <f t="shared" ref="H18:K18" si="18">H13-H17</f>
         <v>-23.062999999999988</v>
       </c>
       <c r="I18" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-32.256000000000029</v>
       </c>
       <c r="J18" s="16">
@@ -8709,44 +9081,56 @@
         <v>-20.288999999999987</v>
       </c>
       <c r="K18" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-13.013000000000005</v>
       </c>
       <c r="L18" s="15">
-        <f t="shared" ref="L18" si="16">L13-L17</f>
+        <f t="shared" ref="L18" si="19">L13-L17</f>
         <v>-10.879999999999995</v>
       </c>
       <c r="M18" s="15">
-        <f t="shared" ref="M18" si="17">M13-M17</f>
+        <f t="shared" ref="M18" si="20">M13-M17</f>
         <v>-5.2869999999999777</v>
       </c>
       <c r="N18" s="16">
-        <f t="shared" ref="N18:S18" si="18">N13-N17</f>
+        <f t="shared" ref="N18:S18" si="21">N13-N17</f>
         <v>-0.19200000000000728</v>
       </c>
       <c r="O18" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-3.1689999999999543</v>
       </c>
       <c r="P18" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-27.556999999999988</v>
       </c>
       <c r="Q18" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-32</v>
       </c>
       <c r="R18" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-5</v>
       </c>
       <c r="S18" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>42.724999999999966</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="T18" s="15">
+        <f t="shared" ref="T18:U18" si="22">T13-T17</f>
+        <v>-19.072999999999979</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="22"/>
+        <v>-3.6359999999999673</v>
+      </c>
+      <c r="V18" s="16">
+        <f t="shared" ref="V18" si="23">V13-V17</f>
+        <v>12.822000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A19" s="73" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="14">
@@ -8821,9 +9205,21 @@
         <f>104+8-12</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="T19" s="4">
+        <f>-142+7-12</f>
+        <v>-147</v>
+      </c>
+      <c r="U19" s="4">
+        <f>+-383+3-12</f>
+        <v>-392</v>
+      </c>
+      <c r="V19" s="9">
+        <f>+-26+3-13</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20" s="73" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="15">
@@ -8847,60 +9243,72 @@
         <v>-3.8759999999999999</v>
       </c>
       <c r="G20" s="17">
-        <f t="shared" ref="G20:I20" si="19">G18+G19</f>
+        <f t="shared" ref="G20:I20" si="24">G18+G19</f>
         <v>-1.4870000000000101</v>
       </c>
       <c r="H20" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-22.520999999999987</v>
       </c>
       <c r="I20" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-31.768000000000029</v>
       </c>
       <c r="J20" s="16">
-        <f t="shared" ref="J20:M20" si="20">J18+J19</f>
+        <f t="shared" ref="J20:M20" si="25">J18+J19</f>
         <v>-19.707999999999988</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>-11.945000000000006</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" ref="L20" si="21">L18+L19</f>
+        <f t="shared" ref="L20" si="26">L18+L19</f>
         <v>-8.1469999999999949</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>-21.754999999999978</v>
       </c>
       <c r="N20" s="16">
-        <f t="shared" ref="N20:Q20" si="22">N18+N19</f>
+        <f t="shared" ref="N20:Q20" si="27">N18+N19</f>
         <v>-240.07599999999999</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>27.063000000000045</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-201.68100000000001</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>-190</v>
       </c>
       <c r="R20" s="16">
-        <f t="shared" ref="R20:S20" si="23">R18+R19</f>
+        <f t="shared" ref="R20:V20" si="28">R18+R19</f>
         <v>74</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>142.72499999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+      <c r="T20" s="15">
+        <f t="shared" si="28"/>
+        <v>-166.07299999999998</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="28"/>
+        <v>-395.63599999999997</v>
+      </c>
+      <c r="V20" s="16">
+        <f t="shared" si="28"/>
+        <v>-23.177999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="73" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="14">
@@ -8957,21 +9365,30 @@
       <c r="S21" s="53">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+      <c r="T21" s="4">
+        <v>-8</v>
+      </c>
+      <c r="U21" s="4">
+        <v>-10</v>
+      </c>
+      <c r="V21" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="80" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="12">
-        <f t="shared" ref="B22:G22" si="24">B20-B21</f>
+        <f t="shared" ref="B22:G22" si="29">B20-B21</f>
         <v>5.0820000000000034</v>
       </c>
       <c r="C22" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5.0650000000000039</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-1.0719999999999881</v>
       </c>
       <c r="E22" s="12">
@@ -8979,141 +9396,165 @@
         <v>-4.7020000000000142</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-2.6369999999999996</v>
       </c>
       <c r="G22" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>-1.6980000000000102</v>
       </c>
       <c r="H22" s="32">
-        <f t="shared" ref="H22" si="25">H20-H21</f>
+        <f t="shared" ref="H22" si="30">H20-H21</f>
         <v>-17.460999999999988</v>
       </c>
       <c r="I22" s="32">
-        <f t="shared" ref="I22:P22" si="26">I20-I21</f>
+        <f t="shared" ref="I22:P22" si="31">I20-I21</f>
         <v>-20.708000000000027</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-11.469999999999988</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-64.209000000000003</v>
       </c>
       <c r="L22" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-14.265999999999995</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-25.850999999999978</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-242.44499999999999</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>45.185000000000045</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>-202.84400000000002</v>
       </c>
       <c r="Q22" s="12">
-        <f t="shared" ref="Q22:S22" si="27">Q20-Q21</f>
+        <f t="shared" ref="Q22:S22" si="32">Q20-Q21</f>
         <v>-237</v>
       </c>
       <c r="R22" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>69</v>
       </c>
       <c r="S22" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>124.72499999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="T22" s="12">
+        <f t="shared" ref="T22:U22" si="33">T20-T21</f>
+        <v>-158.07299999999998</v>
+      </c>
+      <c r="U22" s="12">
+        <f t="shared" si="33"/>
+        <v>-385.63599999999997</v>
+      </c>
+      <c r="V22" s="13">
+        <f t="shared" ref="V22" si="34">V20-V21</f>
+        <v>-20.177999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" s="73" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="18">
-        <f t="shared" ref="B23:H23" si="28">IFERROR(B22/B24,0)</f>
+        <f t="shared" ref="B23:H23" si="35">IFERROR(B22/B24,0)</f>
         <v>3.4924714630307968E-2</v>
       </c>
       <c r="C23" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>3.0561757074760179E-2</v>
       </c>
       <c r="D23" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-5.0347548374975962E-3</v>
       </c>
       <c r="E23" s="18">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-2.1920234959558117E-2</v>
       </c>
       <c r="F23" s="19">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-1.2068428953245705E-2</v>
       </c>
       <c r="G23" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-7.6722875887871196E-3</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-7.8183698781639915E-2</v>
       </c>
       <c r="I23" s="20">
-        <f t="shared" ref="I23:K23" si="29">IFERROR(I22/I24,0)</f>
+        <f t="shared" ref="I23:K23" si="36">IFERROR(I22/I24,0)</f>
         <v>-9.1707446690728847E-2</v>
       </c>
       <c r="J23" s="19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>-5.0272620487736411E-2</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>-0.27891732693911597</v>
       </c>
       <c r="L23" s="18">
-        <f t="shared" ref="L23:P23" si="30">IFERROR(L22/L24,0)</f>
+        <f t="shared" ref="L23:P23" si="37">IFERROR(L22/L24,0)</f>
         <v>-6.1432859216005421E-2</v>
       </c>
       <c r="M23" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.11037718931197313</v>
       </c>
       <c r="N23" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-1.0263568976246618</v>
       </c>
       <c r="O23" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.18274655719803459</v>
       </c>
       <c r="P23" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.84726619606532738</v>
       </c>
       <c r="Q23" s="18">
-        <f t="shared" ref="Q23:S23" si="31">IFERROR(Q22/Q24,0)</f>
+        <f t="shared" ref="Q23:S23" si="38">IFERROR(Q22/Q24,0)</f>
         <v>-0.98340248962655596</v>
       </c>
       <c r="R23" s="19">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>0.27490039840637448</v>
       </c>
       <c r="S23" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>0.49699155243863546</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="T23" s="18">
+        <f t="shared" ref="T23:U23" si="39">IFERROR(T22/T24,0)</f>
+        <v>-0.64387138295099056</v>
+      </c>
+      <c r="U23" s="18">
+        <f t="shared" si="39"/>
+        <v>-1.5618547724060281</v>
+      </c>
+      <c r="V23" s="19">
+        <f t="shared" ref="V23" si="40">IFERROR(V22/V24,0)</f>
+        <v>-8.1357982380097976E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="78" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="14">
@@ -9170,8 +9611,17 @@
       <c r="S24" s="53">
         <v>250.96</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T24" s="44">
+        <v>245.50399999999999</v>
+      </c>
+      <c r="U24" s="44">
+        <v>246.90899999999999</v>
+      </c>
+      <c r="V24" s="83">
+        <v>248.01499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -9185,238 +9635,274 @@
       <c r="R25" s="7"/>
       <c r="S25" s="52"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A26" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="25">
-        <f t="shared" ref="B26:Q26" si="32">IFERROR(B13/B11,0)</f>
+        <f t="shared" ref="B26:Q26" si="41">IFERROR(B13/B11,0)</f>
         <v>0.83873819017501128</v>
       </c>
       <c r="C26" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.83161358540098085</v>
       </c>
       <c r="D26" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.83242610774787618</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.83442016490579052</v>
       </c>
       <c r="F26" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.83505742504770197</v>
       </c>
       <c r="G26" s="27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.81935947457843383</v>
       </c>
       <c r="H26" s="27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.79428925201208178</v>
       </c>
       <c r="I26" s="27">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.78887862743860815</v>
       </c>
       <c r="J26" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.79491508082668305</v>
       </c>
       <c r="K26" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.79884237899505084</v>
       </c>
       <c r="L26" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.79778565458178186</v>
       </c>
       <c r="M26" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.81870762112206352</v>
       </c>
       <c r="N26" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.83095266599823414</v>
       </c>
       <c r="O26" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.83349332227347084</v>
       </c>
       <c r="P26" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.82478416917256769</v>
       </c>
       <c r="Q26" s="54">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.81791044776119404</v>
       </c>
       <c r="R26" s="62">
-        <f t="shared" ref="R26:S26" si="33">IFERROR(R13/R11,0)</f>
+        <f t="shared" ref="R26:S26" si="42">IFERROR(R13/R11,0)</f>
         <v>0.82920110192837471</v>
       </c>
       <c r="S26" s="54">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>0.83852223377576607</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="T26" s="54">
+        <f t="shared" ref="T26:U26" si="43">IFERROR(T13/T11,0)</f>
+        <v>0.82833311466487836</v>
+      </c>
+      <c r="U26" s="54">
+        <f t="shared" si="43"/>
+        <v>0.83712913147306711</v>
+      </c>
+      <c r="V26" s="62">
+        <f t="shared" ref="V26" si="44">IFERROR(V13/V11,0)</f>
+        <v>0.83964518417604994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="28">
-        <f t="shared" ref="B27:Q27" si="34">IFERROR(B18/B11,0)</f>
+        <f t="shared" ref="B27:Q27" si="45">IFERROR(B18/B11,0)</f>
         <v>6.9513464673646191E-2</v>
       </c>
       <c r="C27" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>3.0691119902284326E-2</v>
       </c>
       <c r="D27" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-4.1842600600294953E-2</v>
       </c>
       <c r="E27" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-8.9271718343418002E-2</v>
       </c>
       <c r="F27" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-3.7488942662679929E-2</v>
       </c>
       <c r="G27" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-1.772223304165638E-2</v>
       </c>
       <c r="H27" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-0.14422577841147144</v>
       </c>
       <c r="I27" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-0.18502733306181937</v>
       </c>
       <c r="J27" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-0.10379066912216076</v>
       </c>
       <c r="K27" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-6.0644614079728612E-2</v>
       </c>
       <c r="L27" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-4.8631566714195655E-2</v>
       </c>
       <c r="M27" s="55">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-2.1687320280741388E-2</v>
       </c>
       <c r="N27" s="63">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-7.1831555003519488E-4</v>
       </c>
       <c r="O27" s="28">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-1.0599406647289455E-2</v>
       </c>
       <c r="P27" s="55">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-8.9103372457722985E-2</v>
       </c>
       <c r="Q27" s="55">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>-9.5522388059701493E-2</v>
       </c>
       <c r="R27" s="63">
-        <f t="shared" ref="R27:S27" si="35">IFERROR(R18/R11,0)</f>
+        <f t="shared" ref="R27:S27" si="46">IFERROR(R18/R11,0)</f>
         <v>-1.3774104683195593E-2</v>
       </c>
       <c r="S27" s="55">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.10453238730197559</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="T27" s="55">
+        <f t="shared" ref="T27:U27" si="47">IFERROR(T18/T11,0)</f>
+        <v>-4.6340704889912522E-2</v>
+      </c>
+      <c r="U27" s="55">
+        <f t="shared" si="47"/>
+        <v>-8.4464639143644882E-3</v>
+      </c>
+      <c r="V27" s="63">
+        <f t="shared" ref="V27" si="48">IFERROR(V18/V11,0)</f>
+        <v>2.7903879383511868E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A28" s="73" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="28">
-        <f t="shared" ref="B28:Q28" si="36">IFERROR(B21/B20,0)</f>
+        <f t="shared" ref="B28:Q28" si="49">IFERROR(B21/B20,0)</f>
         <v>0.21971441731920763</v>
       </c>
       <c r="C28" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-0.55368098159509127</v>
       </c>
       <c r="D28" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0.74372459956968895</v>
       </c>
       <c r="E28" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0.55206249404591712</v>
       </c>
       <c r="F28" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0.31965944272445823</v>
       </c>
       <c r="G28" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-0.14189643577673069</v>
       </c>
       <c r="H28" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0.22467918831313008</v>
       </c>
       <c r="I28" s="30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0.34814908083606116</v>
       </c>
       <c r="J28" s="29">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0.41800284148569133</v>
       </c>
       <c r="K28" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-4.3753871912934263</v>
       </c>
       <c r="L28" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-0.75107401497483783</v>
       </c>
       <c r="M28" s="55">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-0.18827855665364304</v>
       </c>
       <c r="N28" s="63">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-9.8677085589563319E-3</v>
       </c>
       <c r="O28" s="28">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-0.66962273214351586</v>
       </c>
       <c r="P28" s="55">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-5.7665322960516853E-3</v>
       </c>
       <c r="Q28" s="55">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>-0.24736842105263157</v>
       </c>
       <c r="R28" s="63">
-        <f t="shared" ref="R28:S28" si="37">IFERROR(R21/R20,0)</f>
+        <f t="shared" ref="R28:S28" si="50">IFERROR(R21/R20,0)</f>
         <v>6.7567567567567571E-2</v>
       </c>
       <c r="S28" s="55">
-        <f t="shared" si="37"/>
+        <f t="shared" si="50"/>
         <v>0.12611665790856547</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T28" s="55">
+        <f t="shared" ref="T28:U28" si="51">IFERROR(T21/T20,0)</f>
+        <v>4.8171587193583554E-2</v>
+      </c>
+      <c r="U28" s="55">
+        <f t="shared" si="51"/>
+        <v>2.5275758525513354E-2</v>
+      </c>
+      <c r="V28" s="63">
+        <f t="shared" ref="V28" si="52">IFERROR(V21/V20,0)</f>
+        <v>0.12943308309603938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -9430,8 +9916,8 @@
       <c r="R29" s="7"/>
       <c r="S29" s="52"/>
     </row>
-    <row r="30" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="80" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="21"/>
@@ -9439,47 +9925,47 @@
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="22">
-        <f t="shared" ref="F30:S30" si="38">IFERROR((F11/B11)-1,0)</f>
+        <f t="shared" ref="F30:W30" si="53">IFERROR((F11/B11)-1,0)</f>
         <v>0.34339337274852189</v>
       </c>
       <c r="G30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.35734599748418483</v>
       </c>
       <c r="H30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.35582744060639993</v>
       </c>
       <c r="I30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.36635890522619685</v>
       </c>
       <c r="J30" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.42908317310855582</v>
       </c>
       <c r="K30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.44100087973191671</v>
       </c>
       <c r="L30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.39906446791612726</v>
       </c>
       <c r="M30" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.39839156547028365</v>
       </c>
       <c r="N30" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.36736239001432347</v>
       </c>
       <c r="O30" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.393334824632535</v>
       </c>
       <c r="P30" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.38237910272971476</v>
       </c>
       <c r="Q30" s="56">
@@ -9487,16 +9973,32 @@
         <v>0.3741729324850378</v>
       </c>
       <c r="R30" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.35806533678523866</v>
       </c>
       <c r="S30" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="53"/>
         <v>0.36706925904494936</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+      <c r="T30" s="56">
+        <f t="shared" si="53"/>
+        <v>0.33081773207876641</v>
+      </c>
+      <c r="U30" s="56">
+        <f t="shared" si="53"/>
+        <v>0.28500298507462696</v>
+      </c>
+      <c r="V30" s="84">
+        <f t="shared" si="53"/>
+        <v>0.26585674931129466</v>
+      </c>
+      <c r="W30" s="56">
+        <f t="shared" si="53"/>
+        <v>0.12545109792647868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="73" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="23"/>
@@ -9504,64 +10006,76 @@
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="24">
-        <f t="shared" ref="F31:S33" si="39">IFERROR((F14/B14)-1,0)</f>
+        <f t="shared" ref="F31:V33" si="54">IFERROR((F14/B14)-1,0)</f>
         <v>0.48389793224813027</v>
       </c>
       <c r="G31" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.45796931822931919</v>
       </c>
       <c r="H31" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.51858962525383046</v>
       </c>
       <c r="I31" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.49089265165214546</v>
       </c>
       <c r="J31" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.40623795546858776</v>
       </c>
       <c r="K31" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.45250723931305381</v>
       </c>
       <c r="L31" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.3194913811966642</v>
       </c>
       <c r="M31" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.22444343981210935</v>
       </c>
       <c r="N31" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.31116780164871072</v>
       </c>
       <c r="O31" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.29647467529904081</v>
       </c>
       <c r="P31" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.41020231426886777</v>
       </c>
       <c r="Q31" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.53089710570394244</v>
       </c>
       <c r="R31" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.41501849171892591</v>
       </c>
       <c r="S31" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.30933893608598995</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
+      <c r="T31" s="57">
+        <f t="shared" si="54"/>
+        <v>0.33273229719930231</v>
+      </c>
+      <c r="U31" s="57">
+        <f t="shared" si="54"/>
+        <v>0.24117647058823533</v>
+      </c>
+      <c r="V31" s="85">
+        <f t="shared" si="54"/>
+        <v>0.31818181818181812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="73" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="23"/>
@@ -9569,64 +10083,76 @@
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.53609642110441524</v>
       </c>
       <c r="G32" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.26265370975913038</v>
       </c>
       <c r="H32" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.49881322638729753</v>
       </c>
       <c r="I32" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.48118140735958681</v>
       </c>
       <c r="J32" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.80512409927942352</v>
       </c>
       <c r="K32" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.62383279836591754</v>
       </c>
       <c r="L32" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.32838225255972708</v>
       </c>
       <c r="M32" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>6.9191710070390267E-2</v>
       </c>
       <c r="N32" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.15900824980040817</v>
       </c>
       <c r="O32" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.54877692670545164</v>
       </c>
       <c r="P32" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.4499712242045546</v>
       </c>
       <c r="Q32" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.56944274591333421</v>
       </c>
       <c r="R32" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.30113658107228969</v>
       </c>
       <c r="S32" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>7.2516316171133965E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
+      <c r="T32" s="57">
+        <f t="shared" si="54"/>
+        <v>0.19074620095259709</v>
+      </c>
+      <c r="U32" s="57">
+        <f t="shared" si="54"/>
+        <v>1.298701298701288E-2</v>
+      </c>
+      <c r="V32" s="85">
+        <f t="shared" si="54"/>
+        <v>2.9411764705882248E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="73" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="23"/>
@@ -9634,63 +10160,75 @@
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.62119021804601848</v>
       </c>
       <c r="G33" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.50079204675807087</v>
       </c>
       <c r="H33" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.27269759660505155</v>
       </c>
       <c r="I33" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.27501727977881885</v>
       </c>
       <c r="J33" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.32732676945940931</v>
       </c>
       <c r="K33" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.40433121019108276</v>
       </c>
       <c r="L33" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>3.1324142353318374E-2</v>
       </c>
       <c r="M33" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.34821105890856519</v>
       </c>
       <c r="N33" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.2780125962211335</v>
       </c>
       <c r="O33" s="23">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.34905660377358472</v>
       </c>
       <c r="P33" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.83495507818571824</v>
       </c>
       <c r="Q33" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.31796452664968955</v>
       </c>
       <c r="R33" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.35795168320301385</v>
       </c>
       <c r="S33" s="57">
-        <f t="shared" si="39"/>
+        <f t="shared" si="54"/>
         <v>0.13348190271267191</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T33" s="57">
+        <f t="shared" si="54"/>
+        <v>0.21982210927573065</v>
+      </c>
+      <c r="U33" s="57">
+        <f t="shared" si="54"/>
+        <v>0.27118644067796605</v>
+      </c>
+      <c r="V33" s="85">
+        <f t="shared" si="54"/>
+        <v>0.14516129032258074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -9704,8 +10242,8 @@
       <c r="R34" s="7"/>
       <c r="S34" s="52"/>
     </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="80" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="31"/>
@@ -9720,11 +10258,11 @@
         <v>754.34400000000005</v>
       </c>
       <c r="G35" s="32">
-        <f t="shared" ref="G35:K35" si="40">G36-G37</f>
+        <f t="shared" ref="G35:K35" si="55">G36-G37</f>
         <v>795.274</v>
       </c>
       <c r="H35" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>503.55799999999999</v>
       </c>
       <c r="I35" s="12">
@@ -9732,48 +10270,60 @@
         <v>549.91899999999998</v>
       </c>
       <c r="J35" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>613.54</v>
       </c>
       <c r="K35" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>679.09899999999993</v>
       </c>
       <c r="L35" s="12">
-        <f t="shared" ref="L35:S35" si="41">L36-L37</f>
+        <f t="shared" ref="L35:V35" si="56">L36-L37</f>
         <v>763.86599999999999</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>913.83600000000001</v>
       </c>
       <c r="N35" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>967.05599999999981</v>
       </c>
       <c r="O35" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>807.95799999999986</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>928.29000000000008</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>859</v>
       </c>
       <c r="R35" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>912</v>
       </c>
       <c r="S35" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="56"/>
         <v>1067</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
+      <c r="T35" s="12">
+        <f t="shared" si="56"/>
+        <v>1192</v>
+      </c>
+      <c r="U35" s="12">
+        <f t="shared" si="56"/>
+        <v>1267</v>
+      </c>
+      <c r="V35" s="13">
+        <f t="shared" si="56"/>
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="78" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="14"/>
@@ -9839,10 +10389,21 @@
         <f>1240+698</f>
         <v>1938</v>
       </c>
-      <c r="T36" s="44"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="T36" s="44">
+        <f>1338+734</f>
+        <v>2072</v>
+      </c>
+      <c r="U36" s="44">
+        <f>1480+676</f>
+        <v>2156</v>
+      </c>
+      <c r="V36" s="83">
+        <f>1560+624</f>
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="78" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="14"/>
@@ -9893,24 +10454,40 @@
       <c r="S37" s="53">
         <v>871</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="52"/>
+      <c r="T37" s="44">
+        <v>880</v>
+      </c>
+      <c r="U37" s="44">
+        <v>889</v>
+      </c>
+      <c r="V37" s="83">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="78"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="53"/>
       <c r="Q38" s="53"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="52"/>
-    </row>
-    <row r="39" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="44" t="s">
+      <c r="R38" s="5"/>
+      <c r="S38" s="53"/>
+      <c r="V38" s="83"/>
+    </row>
+    <row r="39" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="78" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="3"/>
@@ -9958,9 +10535,21 @@
         <f>633+142</f>
         <v>775</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="44" t="s">
+      <c r="T39" s="44">
+        <f>633+132</f>
+        <v>765</v>
+      </c>
+      <c r="U39" s="44">
+        <f>645+130</f>
+        <v>775</v>
+      </c>
+      <c r="V39" s="83">
+        <f>675+132</f>
+        <v>807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="78" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="3"/>
@@ -9999,9 +10588,18 @@
       <c r="S40" s="50">
         <v>3503</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="44" t="s">
+      <c r="T40" s="44">
+        <v>3641</v>
+      </c>
+      <c r="U40" s="44">
+        <v>3894</v>
+      </c>
+      <c r="V40" s="83">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="78" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="3"/>
@@ -10040,16 +10638,25 @@
       <c r="S41" s="50">
         <v>2608</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T41" s="44">
+        <v>2821</v>
+      </c>
+      <c r="U41" s="44">
+        <v>3319</v>
+      </c>
+      <c r="V41" s="83">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="Q42" s="51"/>
       <c r="R42" s="7"/>
       <c r="S42" s="51"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A43" s="73" t="s">
         <v>71</v>
       </c>
       <c r="I43" s="17">
@@ -10057,40 +10664,52 @@
         <v>301.25</v>
       </c>
       <c r="L43" s="17">
-        <f t="shared" ref="L43:S43" si="42">L40-L39-L36</f>
+        <f t="shared" ref="L43:S43" si="57">L40-L39-L36</f>
         <v>218.85299999999984</v>
       </c>
       <c r="M43" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>312.83500000000004</v>
       </c>
       <c r="N43" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>396.48399999999992</v>
       </c>
       <c r="O43" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>453.52</v>
       </c>
       <c r="P43" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>487.69199999999955</v>
       </c>
       <c r="Q43" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>504</v>
       </c>
       <c r="R43" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>758</v>
       </c>
       <c r="S43" s="17">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>790</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
+      <c r="T43" s="17">
+        <f t="shared" ref="T43:U43" si="58">T40-T39-T36</f>
+        <v>804</v>
+      </c>
+      <c r="U43" s="17">
+        <f t="shared" si="58"/>
+        <v>963</v>
+      </c>
+      <c r="V43" s="16">
+        <f t="shared" ref="V43" si="59">V40-V39-V36</f>
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A44" s="73" t="s">
         <v>72</v>
       </c>
       <c r="I44" s="17">
@@ -10098,39 +10717,51 @@
         <v>894.048</v>
       </c>
       <c r="L44" s="17">
-        <f t="shared" ref="L44:S44" si="43">L40-L41</f>
+        <f t="shared" ref="L44:S44" si="60">L40-L41</f>
         <v>882.71299999999997</v>
       </c>
       <c r="M44" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>907.31999999999994</v>
       </c>
       <c r="N44" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>713.27</v>
       </c>
       <c r="O44" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>819.74800000000005</v>
       </c>
       <c r="P44" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>693.51799999999957</v>
       </c>
       <c r="Q44" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>565</v>
       </c>
       <c r="R44" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>695</v>
       </c>
       <c r="S44" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" si="60"/>
         <v>895</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="T44" s="17">
+        <f t="shared" ref="T44:U44" si="61">T40-T41</f>
+        <v>820</v>
+      </c>
+      <c r="U44" s="17">
+        <f t="shared" si="61"/>
+        <v>575</v>
+      </c>
+      <c r="V44" s="16">
+        <f t="shared" ref="V44" si="62">V40-V41</f>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -10139,8 +10770,8 @@
       <c r="R45" s="7"/>
       <c r="S45" s="51"/>
     </row>
-    <row r="46" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="80" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="47"/>
@@ -10157,40 +10788,52 @@
       <c r="J46" s="46"/>
       <c r="K46" s="47"/>
       <c r="L46" s="32">
-        <f t="shared" ref="L46:S46" si="44">SUM(I22:L22)</f>
+        <f t="shared" ref="L46:V46" si="63">SUM(I22:L22)</f>
         <v>-110.65300000000001</v>
       </c>
       <c r="M46" s="32">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>-115.79599999999996</v>
       </c>
       <c r="N46" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>-346.77099999999996</v>
       </c>
       <c r="O46" s="32">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>-237.3769999999999</v>
       </c>
       <c r="P46" s="32">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>-425.95499999999993</v>
       </c>
       <c r="Q46" s="32">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>-637.10399999999993</v>
       </c>
       <c r="R46" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>-325.65899999999999</v>
       </c>
       <c r="S46" s="32">
-        <f t="shared" si="44"/>
+        <f t="shared" si="63"/>
         <v>-246.11900000000009</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="T46" s="32">
+        <f t="shared" si="63"/>
+        <v>-201.34800000000001</v>
+      </c>
+      <c r="U46" s="32">
+        <f t="shared" si="63"/>
+        <v>-349.98399999999998</v>
+      </c>
+      <c r="V46" s="13">
+        <f t="shared" si="63"/>
+        <v>-439.16199999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A47" s="73" t="s">
         <v>73</v>
       </c>
       <c r="I47" s="27">
@@ -10198,40 +10841,52 @@
         <v>-4.754107162031572E-2</v>
       </c>
       <c r="L47" s="27">
-        <f t="shared" ref="L47:S47" si="45">L46/L44</f>
+        <f t="shared" ref="L47:S47" si="64">L46/L44</f>
         <v>-0.12535557989969562</v>
       </c>
       <c r="M47" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>-0.12762421196490761</v>
       </c>
       <c r="N47" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>-0.48617073478486406</v>
       </c>
       <c r="O47" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>-0.28957313711042892</v>
       </c>
       <c r="P47" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>-0.61419458471157229</v>
       </c>
       <c r="Q47" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>-1.1276176991150442</v>
       </c>
       <c r="R47" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>-0.46857410071942446</v>
       </c>
       <c r="S47" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="64"/>
         <v>-0.27499329608938555</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="T47" s="27">
+        <f t="shared" ref="T47:U47" si="65">T46/T44</f>
+        <v>-0.24554634146341464</v>
+      </c>
+      <c r="U47" s="27">
+        <f t="shared" si="65"/>
+        <v>-0.60866782608695646</v>
+      </c>
+      <c r="V47" s="26">
+        <f t="shared" ref="V47" si="66">V46/V44</f>
+        <v>-0.63831686046511626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A48" s="73" t="s">
         <v>74</v>
       </c>
       <c r="I48" s="27">
@@ -10239,40 +10894,52 @@
         <v>-3.3106465045199727E-2</v>
       </c>
       <c r="L48" s="27">
-        <f t="shared" ref="L48:S48" si="46">L46/L40</f>
+        <f t="shared" ref="L48:S48" si="67">L46/L40</f>
         <v>-8.0607104742687105E-2</v>
       </c>
       <c r="M48" s="27">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>-4.7813469825272466E-2</v>
       </c>
       <c r="N48" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>-0.13580106221916238</v>
       </c>
       <c r="O48" s="27">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>-8.7112615892289857E-2</v>
       </c>
       <c r="P48" s="27">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>-0.14815084044486118</v>
       </c>
       <c r="Q48" s="27">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>-0.21400873362445413</v>
       </c>
       <c r="R48" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>-9.9256019506248086E-2</v>
       </c>
       <c r="S48" s="27">
-        <f t="shared" si="46"/>
+        <f t="shared" si="67"/>
         <v>-7.0259491864116494E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
+      <c r="T48" s="27">
+        <f t="shared" ref="T48:U48" si="68">T46/T40</f>
+        <v>-5.5300192254875036E-2</v>
+      </c>
+      <c r="U48" s="27">
+        <f t="shared" si="68"/>
+        <v>-8.9877760657421674E-2</v>
+      </c>
+      <c r="V48" s="26">
+        <f t="shared" ref="V48" si="69">V46/V40</f>
+        <v>-0.10875730559683011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A49" s="73" t="s">
         <v>75</v>
       </c>
       <c r="B49" s="3"/>
@@ -10289,40 +10956,52 @@
       <c r="J49" s="5"/>
       <c r="K49" s="3"/>
       <c r="L49" s="27">
-        <f t="shared" ref="L49:S49" si="47">L46/(L44-L39)</f>
+        <f t="shared" ref="L49:S49" si="70">L46/(L44-L39)</f>
         <v>-0.22459086600620681</v>
       </c>
       <c r="M49" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="70"/>
         <v>-0.21774351259872127</v>
       </c>
       <c r="N49" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="70"/>
         <v>-0.98722591371584412</v>
       </c>
       <c r="O49" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="70"/>
         <v>-1.2319433271920484</v>
       </c>
       <c r="P49" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="70"/>
         <v>-5.3718440235074842</v>
       </c>
       <c r="Q49" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="70"/>
         <v>3.2671999999999994</v>
       </c>
       <c r="R49" s="26">
-        <f t="shared" si="47"/>
+        <f t="shared" si="70"/>
         <v>6.0307222222222219</v>
       </c>
       <c r="S49" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="70"/>
         <v>-2.0509916666666674</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
+      <c r="T49" s="27">
+        <f t="shared" ref="T49:U49" si="71">T46/(T44-T39)</f>
+        <v>-3.6608727272727277</v>
+      </c>
+      <c r="U49" s="27">
+        <f t="shared" si="71"/>
+        <v>1.7499199999999999</v>
+      </c>
+      <c r="V49" s="26">
+        <f t="shared" ref="V49" si="72">V46/(V44-V39)</f>
+        <v>3.6904369747899159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A50" s="73" t="s">
         <v>76</v>
       </c>
       <c r="I50" s="27">
@@ -10330,47 +11009,62 @@
         <v>-0.1410921161825727</v>
       </c>
       <c r="L50" s="27">
-        <f t="shared" ref="L50:S50" si="48">L46/L43</f>
+        <f t="shared" ref="L50:S50" si="73">L46/L43</f>
         <v>-0.50560421835661418</v>
       </c>
       <c r="M50" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>-0.37015039877251571</v>
       </c>
       <c r="N50" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>-0.87461536909433935</v>
       </c>
       <c r="O50" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>-0.52341021344152383</v>
       </c>
       <c r="P50" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>-0.87340985704091989</v>
       </c>
       <c r="Q50" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>-1.2640952380952379</v>
       </c>
       <c r="R50" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>-0.42962928759894459</v>
       </c>
       <c r="S50" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>-0.31154303797468363</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T50" s="27">
+        <f t="shared" ref="T50:U50" si="74">T46/T43</f>
+        <v>-0.25043283582089554</v>
+      </c>
+      <c r="U50" s="27">
+        <f t="shared" si="74"/>
+        <v>-0.36343094496365524</v>
+      </c>
+      <c r="V50" s="26">
+        <f t="shared" ref="V50" si="75">V46/V43</f>
+        <v>-0.41944794651384909</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="Q51" s="51"/>
       <c r="R51" s="7"/>
       <c r="S51" s="51"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="86"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A52" s="73" t="s">
         <v>77</v>
       </c>
       <c r="I52" s="27">
@@ -10378,40 +11072,52 @@
         <v>0.66327139252122014</v>
       </c>
       <c r="L52" s="27">
-        <f t="shared" ref="L52:S55" si="49">L3/H3-1</f>
+        <f t="shared" ref="L52:V55" si="76">L3/H3-1</f>
         <v>0.66649308021272224</v>
       </c>
       <c r="M52" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.6198035916250586</v>
       </c>
       <c r="N52" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.55183989072935824</v>
       </c>
       <c r="O52" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.56083681323180223</v>
       </c>
       <c r="P52" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.57634180523465006</v>
       </c>
       <c r="Q52" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.54122565757542218</v>
       </c>
       <c r="R52" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.49927274083466977</v>
       </c>
       <c r="S52" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.49956721311475416</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
+      <c r="T52" s="65">
+        <f t="shared" si="76"/>
+        <v>0.46667828051036842</v>
+      </c>
+      <c r="U52" s="65">
+        <f t="shared" si="76"/>
+        <v>0.42276795580110504</v>
+      </c>
+      <c r="V52" s="62">
+        <f t="shared" si="76"/>
+        <v>0.38290547263681596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A53" s="73" t="s">
         <v>78</v>
       </c>
       <c r="I53" s="27">
@@ -10419,40 +11125,52 @@
         <v>0.21833764113726017</v>
       </c>
       <c r="L53" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.22186605438931295</v>
       </c>
       <c r="M53" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.21801027244305504</v>
       </c>
       <c r="N53" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.21670449625421506</v>
       </c>
       <c r="O53" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.20713389407248184</v>
       </c>
       <c r="P53" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.2063255768550265</v>
       </c>
       <c r="Q53" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.2146491268277031</v>
       </c>
       <c r="R53" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.18616287094547967</v>
       </c>
       <c r="S53" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.20292092506252501</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
+      <c r="T53" s="65">
+        <f t="shared" si="76"/>
+        <v>0.21005037324755738</v>
+      </c>
+      <c r="U53" s="65">
+        <f t="shared" si="76"/>
+        <v>0.15824528301886787</v>
+      </c>
+      <c r="V53" s="62">
+        <f t="shared" si="76"/>
+        <v>0.16085454545454558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A54" s="73" t="s">
         <v>79</v>
       </c>
       <c r="I54" s="27">
@@ -10460,40 +11178,52 @@
         <v>8.0844173971302613E-2</v>
       </c>
       <c r="L54" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>9.1202872531418233E-2</v>
       </c>
       <c r="M54" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.16297329407510697</v>
       </c>
       <c r="N54" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.12294323323735079</v>
       </c>
       <c r="O54" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.20210781570602498</v>
       </c>
       <c r="P54" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>8.8327927419733943E-2</v>
       </c>
       <c r="Q54" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>2.1586568357466529E-2</v>
       </c>
       <c r="R54" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.14474105957232486</v>
       </c>
       <c r="S54" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.12696873302816347</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="T54" s="65">
+        <f t="shared" si="76"/>
+        <v>-9.2864547339322812E-2</v>
+      </c>
+      <c r="U54" s="65">
+        <f t="shared" si="76"/>
+        <v>-0.11456521739130443</v>
+      </c>
+      <c r="V54" s="62">
+        <f t="shared" si="76"/>
+        <v>-0.11451999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A55" s="73" t="s">
         <v>80</v>
       </c>
       <c r="I55" s="27">
@@ -10501,46 +11231,58 @@
         <v>0.48674268443467494</v>
       </c>
       <c r="L55" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.4933319963902536</v>
       </c>
       <c r="M55" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.53040103492884882</v>
       </c>
       <c r="N55" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.38965876918492026</v>
       </c>
       <c r="O55" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.57553041965062568</v>
       </c>
       <c r="P55" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.39582354126099495</v>
       </c>
       <c r="Q55" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.50947953145755331</v>
       </c>
       <c r="R55" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.44756594467081268</v>
       </c>
       <c r="S55" s="65">
-        <f t="shared" si="49"/>
+        <f t="shared" si="76"/>
         <v>0.44915038232795235</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T55" s="65">
+        <f t="shared" si="76"/>
+        <v>0.28906099672888197</v>
+      </c>
+      <c r="U55" s="65">
+        <f t="shared" si="76"/>
+        <v>0.19263999999999992</v>
+      </c>
+      <c r="V55" s="62">
+        <f t="shared" si="76"/>
+        <v>0.17448148148148146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
       <c r="I56" s="51"/>
       <c r="L56" s="2"/>
       <c r="R56" s="7"/>
       <c r="S56" s="51"/>
     </row>
-    <row r="57" spans="1:19" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="44" t="s">
+    <row r="57" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B57" s="3"/>
@@ -10585,9 +11327,18 @@
       <c r="S57" s="53">
         <v>164790</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" s="58" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="58" t="s">
+      <c r="T57" s="44">
+        <v>171051</v>
+      </c>
+      <c r="U57" s="44">
+        <v>174097</v>
+      </c>
+      <c r="V57" s="83">
+        <v>182717</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="81" t="s">
         <v>88</v>
       </c>
       <c r="B58" s="59"/>
@@ -10601,77 +11352,101 @@
       <c r="J58" s="60"/>
       <c r="K58" s="59"/>
       <c r="L58" s="25">
-        <f t="shared" ref="L58:S58" si="50">L8/H8-1</f>
-        <v>0.40134774376403914</v>
+        <f>L57/H57-1</f>
+        <v>0.40134774376403892</v>
       </c>
       <c r="M58" s="25">
-        <f t="shared" si="50"/>
+        <f>M57/I57-1</f>
         <v>0.40968432376704733</v>
       </c>
       <c r="N58" s="26">
-        <f t="shared" si="50"/>
+        <f>N57/J57-1</f>
         <v>0.28297106157073126</v>
       </c>
       <c r="O58" s="25">
-        <f t="shared" si="50"/>
+        <f>O57/K57-1</f>
         <v>0.22798056337777939</v>
       </c>
       <c r="P58" s="25">
-        <f t="shared" si="50"/>
+        <f>P57/L57-1</f>
         <v>0.20879840212155298</v>
       </c>
       <c r="Q58" s="25">
-        <f>Q8/M8-1</f>
-        <v>0.21408470857578954</v>
+        <f t="shared" ref="Q58:V58" si="77">Q57/M57-1</f>
+        <v>0.21408470857578932</v>
       </c>
       <c r="R58" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="77"/>
         <v>0.15590841682641887</v>
       </c>
       <c r="S58" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="77"/>
         <v>0.19210040872427392</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T58" s="25">
+        <f t="shared" si="77"/>
+        <v>0.18754078784765138</v>
+      </c>
+      <c r="U58" s="25">
+        <f t="shared" si="77"/>
+        <v>0.13992286890988503</v>
+      </c>
+      <c r="V58" s="26">
+        <f t="shared" si="77"/>
+        <v>0.14350353908640878</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="R59" s="7"/>
       <c r="S59" s="51"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A60" s="73" t="s">
         <v>115</v>
       </c>
       <c r="L60" s="65">
-        <f t="shared" ref="L60:S60" si="51">L9/H9-1</f>
+        <f t="shared" ref="L60:V60" si="78">L9/H9-1</f>
         <v>-1.6293427938014471E-3</v>
       </c>
       <c r="M60" s="65">
-        <f t="shared" si="51"/>
+        <f t="shared" si="78"/>
         <v>-8.0108419355804372E-3</v>
       </c>
       <c r="N60" s="62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="78"/>
         <v>6.5778045172953936E-2</v>
       </c>
       <c r="O60" s="65">
-        <f t="shared" si="51"/>
+        <f t="shared" si="78"/>
         <v>0.13465543851925399</v>
       </c>
       <c r="P60" s="65">
-        <f t="shared" si="51"/>
+        <f t="shared" si="78"/>
         <v>0.14359772506607538</v>
       </c>
       <c r="Q60" s="65">
-        <f t="shared" si="51"/>
+        <f t="shared" si="78"/>
         <v>0.13185918806031549</v>
       </c>
       <c r="R60" s="62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="78"/>
         <v>0.17489008386481664</v>
       </c>
       <c r="S60" s="65">
-        <f t="shared" si="51"/>
+        <f t="shared" si="78"/>
         <v>0.14677358470828672</v>
+      </c>
+      <c r="T60" s="65">
+        <f t="shared" si="78"/>
+        <v>0.12065012477659476</v>
+      </c>
+      <c r="U60" s="65">
+        <f t="shared" si="78"/>
+        <v>0.12727187086217762</v>
+      </c>
+      <c r="V60" s="62">
+        <f t="shared" si="78"/>
+        <v>0.10699854092505845</v>
       </c>
     </row>
   </sheetData>
@@ -10685,104 +11460,110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="B3:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="7" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="8" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="9" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C12" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>112</v>
       </c>
     </row>

--- a/TEAM.xlsx
+++ b/TEAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4771D55-5D99-9440-8D1F-8369E9774CBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ACFAF8-B155-464E-A476-D0A31962EB34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19380" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44920" yWindow="-5780" windowWidth="32400" windowHeight="26700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
   <si>
     <t>Q117</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>PRODUCTS</t>
+  </si>
+  <si>
+    <t>Q221</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,26 +697,11 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -737,9 +725,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -758,6 +743,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -839,13 +826,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>155734</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>14111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>155734</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -863,8 +850,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18870916" y="175747"/>
-          <a:ext cx="0" cy="9674835"/>
+          <a:off x="19684426" y="180188"/>
+          <a:ext cx="0" cy="9936827"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1156,11 +1143,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1182,10 +1169,10 @@
         <v>64</v>
       </c>
       <c r="C2" s="33">
-        <v>234.16</v>
-      </c>
-      <c r="D2" s="72">
-        <v>44195</v>
+        <v>227.78</v>
+      </c>
+      <c r="D2" s="67">
+        <v>44224</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>29</v>
@@ -1204,11 +1191,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="6">
-        <f>Reports!V24</f>
-        <v>248.01499999999999</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>120</v>
+        <f>Reports!W24</f>
+        <v>249.18799999999999</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>124</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>30</v>
@@ -1228,9 +1215,9 @@
       </c>
       <c r="C4" s="36">
         <f>C2*C3</f>
-        <v>58075.192399999993</v>
-      </c>
-      <c r="D4" s="73"/>
+        <v>56760.04264</v>
+      </c>
+      <c r="D4" s="68"/>
       <c r="E4" s="10" t="s">
         <v>31</v>
       </c>
@@ -1249,11 +1236,11 @@
         <v>26</v>
       </c>
       <c r="C5" s="6">
-        <f>Reports!V35</f>
-        <v>1286</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>120</v>
+        <f>Reports!W35</f>
+        <v>1050</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>124</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>32</v>
@@ -1271,15 +1258,15 @@
       </c>
       <c r="C6" s="36">
         <f>C4-C5</f>
-        <v>56789.192399999993</v>
-      </c>
-      <c r="D6" s="73"/>
+        <v>55710.04264</v>
+      </c>
+      <c r="D6" s="68"/>
       <c r="E6" s="38" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="39">
         <f>F5+C5</f>
-        <v>59463.313777286319</v>
+        <v>59227.313777286319</v>
       </c>
       <c r="K6" s="43"/>
     </row>
@@ -1292,19 +1279,19 @@
       </c>
       <c r="C7" s="40">
         <f>C6/C3</f>
-        <v>228.9748297482007</v>
-      </c>
-      <c r="D7" s="73"/>
+        <v>223.56631394770216</v>
+      </c>
+      <c r="D7" s="68"/>
       <c r="E7" s="41" t="s">
         <v>67</v>
       </c>
       <c r="F7" s="42">
         <f>F6/C3</f>
-        <v>239.75692509439477</v>
+        <v>237.68124378897187</v>
       </c>
       <c r="G7" s="43">
         <f>F7/C2-1</f>
-        <v>2.390213996581303E-2</v>
+        <v>4.3468451088646276E-2</v>
       </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.15">
@@ -2535,8 +2522,8 @@
       <c r="DO17" s="3"/>
       <c r="DP17" s="3"/>
     </row>
-    <row r="18" spans="1:120" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="68">
+    <row r="18" spans="1:120" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="3">
         <v>1600</v>
       </c>
     </row>
@@ -4649,7 +4636,7 @@
         <v>5788.367755423008</v>
       </c>
       <c r="V30" s="12">
-        <f t="shared" ref="U30:CG30" si="43">U30*($F$2+1)</f>
+        <f t="shared" ref="V30:CG30" si="43">U30*($F$2+1)</f>
         <v>5817.3095942001228</v>
       </c>
       <c r="W30" s="12">
@@ -7462,19 +7449,19 @@
       <c r="A51" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="66">
+      <c r="C51" s="65">
         <f>C48-C47-C44</f>
         <v>301.25</v>
       </c>
-      <c r="D51" s="66">
+      <c r="D51" s="65">
         <f>D48-D47-D44</f>
         <v>312.83500000000004</v>
       </c>
-      <c r="E51" s="66">
+      <c r="E51" s="65">
         <f>E48-E47-E44</f>
         <v>504</v>
       </c>
-      <c r="F51" s="66">
+      <c r="F51" s="65">
         <f>F48-F47-F44</f>
         <v>963</v>
       </c>
@@ -7483,19 +7470,19 @@
       <c r="A52" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="66">
+      <c r="C52" s="65">
         <f>C48-C49</f>
         <v>894.048</v>
       </c>
-      <c r="D52" s="66">
+      <c r="D52" s="65">
         <f>D48-D49</f>
         <v>907.31999999999994</v>
       </c>
-      <c r="E52" s="66">
+      <c r="E52" s="65">
         <f>E48-E49</f>
         <v>565</v>
       </c>
-      <c r="F52" s="66">
+      <c r="F52" s="65">
         <f>F48-F49</f>
         <v>575</v>
       </c>
@@ -7864,18 +7851,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y60"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X51" sqref="X51"/>
+      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="73" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="68" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="7" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="2" customWidth="1"/>
@@ -7893,8 +7880,8 @@
     <col min="23" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -7961,7 +7948,7 @@
         <v>120</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>121</v>
@@ -7970,8 +7957,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="77"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2" s="72"/>
       <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
@@ -8020,24 +8007,27 @@
       <c r="Q2" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="74">
+      <c r="R2" s="69">
         <v>43738</v>
       </c>
-      <c r="S2" s="75">
+      <c r="S2" s="70">
         <v>43830</v>
       </c>
-      <c r="T2" s="76">
+      <c r="T2" s="71">
         <v>43921</v>
       </c>
-      <c r="U2" s="76">
+      <c r="U2" s="71">
         <v>44012</v>
       </c>
-      <c r="V2" s="82">
+      <c r="V2" s="76">
         <v>44104</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78" t="s">
+      <c r="W2" s="82">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="73" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="3">
@@ -8100,12 +8090,15 @@
       <c r="U3" s="44">
         <v>257.52100000000002</v>
       </c>
-      <c r="V3" s="83">
+      <c r="V3" s="77">
         <v>277.964</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78" t="s">
+      <c r="W3" s="44">
+        <v>310.67500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="73" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="3">
@@ -8168,12 +8161,15 @@
       <c r="U4" s="44">
         <v>122.774</v>
       </c>
-      <c r="V4" s="83">
+      <c r="V4" s="77">
         <v>127.694</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="78" t="s">
+      <c r="W4" s="44">
+        <v>131.27600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="73" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="3">
@@ -8236,12 +8232,15 @@
       <c r="U5" s="44">
         <v>20.364999999999998</v>
       </c>
-      <c r="V5" s="83">
+      <c r="V5" s="77">
         <v>22.137</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="78" t="s">
+      <c r="W5" s="44">
+        <v>22.123999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="73" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="3">
@@ -8304,12 +8303,15 @@
       <c r="U6" s="44">
         <v>29.815999999999999</v>
       </c>
-      <c r="V6" s="83">
+      <c r="V6" s="77">
         <v>31.710999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="78"/>
+      <c r="W6" s="44">
+        <v>37.283999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="73"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8328,10 +8330,10 @@
       <c r="Q7" s="53"/>
       <c r="R7" s="5"/>
       <c r="S7" s="53"/>
-      <c r="V7" s="83"/>
-    </row>
-    <row r="8" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="78" t="s">
+      <c r="V7" s="77"/>
+    </row>
+    <row r="8" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="73" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="3"/>
@@ -8376,7 +8378,7 @@
         <f t="shared" si="0"/>
         <v>0.144038</v>
       </c>
-      <c r="Q8" s="67">
+      <c r="Q8" s="66">
         <f t="shared" si="0"/>
         <v>0.152727</v>
       </c>
@@ -8400,9 +8402,13 @@
         <f>V57/1000000</f>
         <v>0.18271699999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="78" t="s">
+      <c r="W8" s="59">
+        <f>W57/1000000</f>
+        <v>0.19433400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="73" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="3"/>
@@ -8452,7 +8458,7 @@
         <v>2193.4562978386271</v>
       </c>
       <c r="R9" s="16">
-        <f t="shared" ref="R9:U9" si="3">SUM(R3:R6)/R8</f>
+        <f t="shared" ref="R9:W9" si="3">SUM(R3:R6)/R8</f>
         <v>2271.7742995362573</v>
       </c>
       <c r="S9" s="17">
@@ -8471,35 +8477,41 @@
         <f t="shared" ref="V9" si="4">SUM(V3:V6)/V8</f>
         <v>2514.8508348976834</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
-      <c r="F10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="64">
+      <c r="W9" s="17">
+        <f t="shared" si="3"/>
+        <v>2579.8830878796302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="73"/>
+      <c r="F10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="53">
         <v>390</v>
       </c>
-      <c r="T10" s="68">
+      <c r="T10" s="3">
         <v>395</v>
       </c>
-      <c r="V10" s="69">
+      <c r="V10" s="5">
         <v>445</v>
       </c>
-      <c r="W10" s="68">
+      <c r="W10" s="3">
         <v>460</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="80" t="s">
+      <c r="X10" s="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="74" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="12">
@@ -8567,7 +8579,7 @@
         <v>335</v>
       </c>
       <c r="R11" s="13">
-        <f t="shared" ref="R11:V11" si="7">R8*R9</f>
+        <f t="shared" ref="R11:X11" si="7">R8*R9</f>
         <v>363</v>
       </c>
       <c r="S11" s="12">
@@ -8586,12 +8598,17 @@
         <f t="shared" si="7"/>
         <v>459.50599999999997</v>
       </c>
-      <c r="W11" s="11">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="78" t="s">
+      <c r="W11" s="12">
+        <f t="shared" si="7"/>
+        <v>501.35900000000009</v>
+      </c>
+      <c r="X11" s="11">
+        <v>475</v>
+      </c>
+      <c r="Z11" s="83"/>
+    </row>
+    <row r="12" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="14">
@@ -8654,12 +8671,15 @@
       <c r="U12" s="44">
         <v>70.111999999999995</v>
       </c>
-      <c r="V12" s="83">
+      <c r="V12" s="77">
         <v>73.683999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="73" t="s">
+      <c r="W12" s="44">
+        <v>79.481999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A13" s="68" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="15">
@@ -8727,7 +8747,7 @@
         <v>274</v>
       </c>
       <c r="R13" s="16">
-        <f t="shared" ref="R13:V13" si="11">R11-R12</f>
+        <f t="shared" ref="R13:W13" si="11">R11-R12</f>
         <v>301</v>
       </c>
       <c r="S13" s="15">
@@ -8746,9 +8766,13 @@
         <f t="shared" si="11"/>
         <v>385.822</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="73" t="s">
+      <c r="W13" s="15">
+        <f t="shared" si="11"/>
+        <v>421.87700000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A14" s="68" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="14">
@@ -8814,9 +8838,12 @@
       <c r="V14" s="9">
         <v>232</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A15" s="73" t="s">
+      <c r="W14" s="4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A15" s="68" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="14">
@@ -8882,9 +8909,12 @@
       <c r="V15" s="9">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="73" t="s">
+      <c r="W15" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A16" s="68" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="14">
@@ -8950,9 +8980,12 @@
       <c r="V16" s="9">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A17" s="73" t="s">
+      <c r="W16" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A17" s="68" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="15">
@@ -9036,12 +9069,16 @@
         <v>364</v>
       </c>
       <c r="V17" s="16">
-        <f t="shared" ref="V17" si="16">SUM(V14:V16)</f>
+        <f t="shared" ref="V17:W17" si="16">SUM(V14:V16)</f>
         <v>373</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A18" s="73" t="s">
+      <c r="W17" s="15">
+        <f t="shared" si="16"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A18" s="68" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="15">
@@ -9125,12 +9162,16 @@
         <v>-3.6359999999999673</v>
       </c>
       <c r="V18" s="16">
-        <f t="shared" ref="V18" si="23">V13-V17</f>
+        <f t="shared" ref="V18:W18" si="23">V13-V17</f>
         <v>12.822000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A19" s="73" t="s">
+      <c r="W18" s="15">
+        <f t="shared" si="23"/>
+        <v>27.877000000000066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A19" s="68" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="14">
@@ -9217,9 +9258,13 @@
         <f>+-26+3-13</f>
         <v>-36</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A20" s="73" t="s">
+      <c r="W19" s="4">
+        <f>+-546+2-91</f>
+        <v>-635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A20" s="68" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="15">
@@ -9287,7 +9332,7 @@
         <v>-190</v>
       </c>
       <c r="R20" s="16">
-        <f t="shared" ref="R20:V20" si="28">R18+R19</f>
+        <f t="shared" ref="R20:W20" si="28">R18+R19</f>
         <v>74</v>
       </c>
       <c r="S20" s="15">
@@ -9306,9 +9351,13 @@
         <f t="shared" si="28"/>
         <v>-23.177999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A21" s="73" t="s">
+      <c r="W20" s="15">
+        <f t="shared" si="28"/>
+        <v>-607.12299999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A21" s="68" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="14">
@@ -9374,9 +9423,12 @@
       <c r="V21" s="9">
         <v>-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="80" t="s">
+      <c r="W21" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="74" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="12">
@@ -9460,12 +9512,16 @@
         <v>-385.63599999999997</v>
       </c>
       <c r="V22" s="13">
-        <f t="shared" ref="V22" si="34">V20-V21</f>
+        <f t="shared" ref="V22:W22" si="34">V20-V21</f>
         <v>-20.177999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
+      <c r="W22" s="12">
+        <f t="shared" si="34"/>
+        <v>-621.12299999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A23" s="68" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="18">
@@ -9549,12 +9605,16 @@
         <v>-1.5618547724060281</v>
       </c>
       <c r="V23" s="19">
-        <f t="shared" ref="V23" si="40">IFERROR(V22/V24,0)</f>
+        <f t="shared" ref="V23:W23" si="40">IFERROR(V22/V24,0)</f>
         <v>-8.1357982380097976E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="78" t="s">
+      <c r="W23" s="18">
+        <f t="shared" si="40"/>
+        <v>-2.4925879255822911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="73" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="14">
@@ -9617,11 +9677,14 @@
       <c r="U24" s="44">
         <v>246.90899999999999</v>
       </c>
-      <c r="V24" s="83">
+      <c r="V24" s="77">
         <v>248.01499999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W24" s="44">
+        <v>249.18799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -9635,8 +9698,8 @@
       <c r="R25" s="7"/>
       <c r="S25" s="52"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A26" s="73" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A26" s="68" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="25">
@@ -9720,12 +9783,16 @@
         <v>0.83712913147306711</v>
       </c>
       <c r="V26" s="62">
-        <f t="shared" ref="V26" si="44">IFERROR(V13/V11,0)</f>
+        <f t="shared" ref="V26:W26" si="44">IFERROR(V13/V11,0)</f>
         <v>0.83964518417604994</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A27" s="73" t="s">
+      <c r="W26" s="54">
+        <f t="shared" si="44"/>
+        <v>0.8414668929848671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A27" s="68" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="28">
@@ -9809,12 +9876,16 @@
         <v>-8.4464639143644882E-3</v>
       </c>
       <c r="V27" s="63">
-        <f t="shared" ref="V27" si="48">IFERROR(V18/V11,0)</f>
+        <f t="shared" ref="V27:W27" si="48">IFERROR(V18/V11,0)</f>
         <v>2.7903879383511868E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A28" s="73" t="s">
+      <c r="W27" s="55">
+        <f t="shared" si="48"/>
+        <v>5.5602871395547024E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A28" s="68" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="28">
@@ -9898,11 +9969,15 @@
         <v>2.5275758525513354E-2</v>
       </c>
       <c r="V28" s="63">
-        <f t="shared" ref="V28" si="52">IFERROR(V21/V20,0)</f>
+        <f t="shared" ref="V28:W28" si="52">IFERROR(V21/V20,0)</f>
         <v>0.12943308309603938</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="W28" s="55">
+        <f t="shared" si="52"/>
+        <v>-2.3059577713247566E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -9916,8 +9991,8 @@
       <c r="R29" s="7"/>
       <c r="S29" s="52"/>
     </row>
-    <row r="30" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="80" t="s">
+    <row r="30" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="74" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="21"/>
@@ -9925,7 +10000,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="22">
-        <f t="shared" ref="F30:W30" si="53">IFERROR((F11/B11)-1,0)</f>
+        <f t="shared" ref="F30:X30" si="53">IFERROR((F11/B11)-1,0)</f>
         <v>0.34339337274852189</v>
       </c>
       <c r="G30" s="21">
@@ -9988,17 +10063,21 @@
         <f t="shared" si="53"/>
         <v>0.28500298507462696</v>
       </c>
-      <c r="V30" s="84">
+      <c r="V30" s="78">
         <f t="shared" si="53"/>
         <v>0.26585674931129466</v>
       </c>
       <c r="W30" s="56">
         <f t="shared" si="53"/>
-        <v>0.12545109792647868</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="73" t="s">
+        <v>0.22664138479417728</v>
+      </c>
+      <c r="X30" s="56">
+        <f t="shared" si="53"/>
+        <v>0.15408351191257141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="68" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="23"/>
@@ -10006,7 +10085,7 @@
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="24">
-        <f t="shared" ref="F31:V33" si="54">IFERROR((F14/B14)-1,0)</f>
+        <f t="shared" ref="F31:W33" si="54">IFERROR((F14/B14)-1,0)</f>
         <v>0.48389793224813027</v>
       </c>
       <c r="G31" s="23">
@@ -10069,13 +10148,17 @@
         <f t="shared" si="54"/>
         <v>0.24117647058823533</v>
       </c>
-      <c r="V31" s="85">
+      <c r="V31" s="79">
         <f t="shared" si="54"/>
         <v>0.31818181818181812</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="73" t="s">
+      <c r="W31" s="57">
+        <f t="shared" si="54"/>
+        <v>0.40116279069767447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="68" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="23"/>
@@ -10146,13 +10229,17 @@
         <f t="shared" si="54"/>
         <v>1.298701298701288E-2</v>
       </c>
-      <c r="V32" s="85">
+      <c r="V32" s="79">
         <f t="shared" si="54"/>
         <v>2.9411764705882248E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="73" t="s">
+      <c r="W32" s="57">
+        <f t="shared" si="54"/>
+        <v>0.11594202898550732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="68" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="23"/>
@@ -10223,12 +10310,16 @@
         <f t="shared" si="54"/>
         <v>0.27118644067796605</v>
       </c>
-      <c r="V33" s="85">
+      <c r="V33" s="79">
         <f t="shared" si="54"/>
         <v>0.14516129032258074</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W33" s="57">
+        <f t="shared" si="54"/>
+        <v>0.28813559322033888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -10242,8 +10333,8 @@
       <c r="R34" s="7"/>
       <c r="S34" s="52"/>
     </row>
-    <row r="35" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="80" t="s">
+    <row r="35" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="31"/>
@@ -10321,9 +10412,13 @@
         <f t="shared" si="56"/>
         <v>1286</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="78" t="s">
+      <c r="W35" s="12">
+        <f t="shared" ref="W35" si="57">W36-W37</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="73" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="14"/>
@@ -10397,13 +10492,17 @@
         <f>1480+676</f>
         <v>2156</v>
       </c>
-      <c r="V36" s="83">
+      <c r="V36" s="77">
         <f>1560+624</f>
         <v>2184</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="78" t="s">
+      <c r="W36" s="44">
+        <f>1252+534</f>
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="73" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="14"/>
@@ -10460,12 +10559,15 @@
       <c r="U37" s="44">
         <v>889</v>
       </c>
-      <c r="V37" s="83">
+      <c r="V37" s="77">
         <v>898</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="78"/>
+      <c r="W37" s="44">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="73"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -10484,10 +10586,10 @@
       <c r="Q38" s="53"/>
       <c r="R38" s="5"/>
       <c r="S38" s="53"/>
-      <c r="V38" s="83"/>
-    </row>
-    <row r="39" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78" t="s">
+      <c r="V38" s="77"/>
+    </row>
+    <row r="39" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="73" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="3"/>
@@ -10543,13 +10645,17 @@
         <f>645+130</f>
         <v>775</v>
       </c>
-      <c r="V39" s="83">
+      <c r="V39" s="77">
         <f>675+132</f>
         <v>807</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="78" t="s">
+      <c r="W39" s="44">
+        <f>687+124</f>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="73" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="3"/>
@@ -10594,12 +10700,15 @@
       <c r="U40" s="44">
         <v>3894</v>
       </c>
-      <c r="V40" s="83">
+      <c r="V40" s="77">
         <v>4038</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="78" t="s">
+      <c r="W40" s="44">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="73" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="3"/>
@@ -10644,19 +10753,22 @@
       <c r="U41" s="44">
         <v>3319</v>
       </c>
-      <c r="V41" s="83">
+      <c r="V41" s="77">
         <v>3350</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W41" s="44">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="Q42" s="51"/>
       <c r="R42" s="7"/>
       <c r="S42" s="51"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="73" t="s">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A43" s="68" t="s">
         <v>71</v>
       </c>
       <c r="I43" s="17">
@@ -10664,52 +10776,56 @@
         <v>301.25</v>
       </c>
       <c r="L43" s="17">
-        <f t="shared" ref="L43:S43" si="57">L40-L39-L36</f>
+        <f t="shared" ref="L43:S43" si="58">L40-L39-L36</f>
         <v>218.85299999999984</v>
       </c>
       <c r="M43" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>312.83500000000004</v>
       </c>
       <c r="N43" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>396.48399999999992</v>
       </c>
       <c r="O43" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>453.52</v>
       </c>
       <c r="P43" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>487.69199999999955</v>
       </c>
       <c r="Q43" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>504</v>
       </c>
       <c r="R43" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>758</v>
       </c>
       <c r="S43" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>790</v>
       </c>
       <c r="T43" s="17">
-        <f t="shared" ref="T43:U43" si="58">T40-T39-T36</f>
+        <f t="shared" ref="T43:U43" si="59">T40-T39-T36</f>
         <v>804</v>
       </c>
       <c r="U43" s="17">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>963</v>
       </c>
       <c r="V43" s="16">
-        <f t="shared" ref="V43" si="59">V40-V39-V36</f>
+        <f t="shared" ref="V43:W43" si="60">V40-V39-V36</f>
         <v>1047</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="73" t="s">
+      <c r="W43" s="17">
+        <f t="shared" si="60"/>
+        <v>964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A44" s="68" t="s">
         <v>72</v>
       </c>
       <c r="I44" s="17">
@@ -10717,51 +10833,55 @@
         <v>894.048</v>
       </c>
       <c r="L44" s="17">
-        <f t="shared" ref="L44:S44" si="60">L40-L41</f>
+        <f t="shared" ref="L44:S44" si="61">L40-L41</f>
         <v>882.71299999999997</v>
       </c>
       <c r="M44" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>907.31999999999994</v>
       </c>
       <c r="N44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>713.27</v>
       </c>
       <c r="O44" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>819.74800000000005</v>
       </c>
       <c r="P44" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>693.51799999999957</v>
       </c>
       <c r="Q44" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>565</v>
       </c>
       <c r="R44" s="16">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>695</v>
       </c>
       <c r="S44" s="17">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>895</v>
       </c>
       <c r="T44" s="17">
-        <f t="shared" ref="T44:U44" si="61">T40-T41</f>
+        <f t="shared" ref="T44:U44" si="62">T40-T41</f>
         <v>820</v>
       </c>
       <c r="U44" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>575</v>
       </c>
       <c r="V44" s="16">
-        <f t="shared" ref="V44" si="62">V40-V41</f>
+        <f t="shared" ref="V44:W44" si="63">V40-V41</f>
         <v>688</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W44" s="17">
+        <f t="shared" si="63"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -10770,8 +10890,8 @@
       <c r="R45" s="7"/>
       <c r="S45" s="51"/>
     </row>
-    <row r="46" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="80" t="s">
+    <row r="46" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="74" t="s">
         <v>87</v>
       </c>
       <c r="B46" s="47"/>
@@ -10788,52 +10908,56 @@
       <c r="J46" s="46"/>
       <c r="K46" s="47"/>
       <c r="L46" s="32">
-        <f t="shared" ref="L46:V46" si="63">SUM(I22:L22)</f>
+        <f t="shared" ref="L46:W46" si="64">SUM(I22:L22)</f>
         <v>-110.65300000000001</v>
       </c>
       <c r="M46" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-115.79599999999996</v>
       </c>
       <c r="N46" s="13">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-346.77099999999996</v>
       </c>
       <c r="O46" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-237.3769999999999</v>
       </c>
       <c r="P46" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-425.95499999999993</v>
       </c>
       <c r="Q46" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-637.10399999999993</v>
       </c>
       <c r="R46" s="13">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-325.65899999999999</v>
       </c>
       <c r="S46" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-246.11900000000009</v>
       </c>
       <c r="T46" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-201.34800000000001</v>
       </c>
       <c r="U46" s="32">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-349.98399999999998</v>
       </c>
       <c r="V46" s="13">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-439.16199999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47" s="73" t="s">
+      <c r="W46" s="32">
+        <f t="shared" si="64"/>
+        <v>-1185.0099999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A47" s="68" t="s">
         <v>73</v>
       </c>
       <c r="I47" s="27">
@@ -10841,52 +10965,56 @@
         <v>-4.754107162031572E-2</v>
       </c>
       <c r="L47" s="27">
-        <f t="shared" ref="L47:S47" si="64">L46/L44</f>
+        <f t="shared" ref="L47:S47" si="65">L46/L44</f>
         <v>-0.12535557989969562</v>
       </c>
       <c r="M47" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-0.12762421196490761</v>
       </c>
       <c r="N47" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-0.48617073478486406</v>
       </c>
       <c r="O47" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-0.28957313711042892</v>
       </c>
       <c r="P47" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-0.61419458471157229</v>
       </c>
       <c r="Q47" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-1.1276176991150442</v>
       </c>
       <c r="R47" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-0.46857410071942446</v>
       </c>
       <c r="S47" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-0.27499329608938555</v>
       </c>
       <c r="T47" s="27">
-        <f t="shared" ref="T47:U47" si="65">T46/T44</f>
+        <f t="shared" ref="T47:U47" si="66">T46/T44</f>
         <v>-0.24554634146341464</v>
       </c>
       <c r="U47" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-0.60866782608695646</v>
       </c>
       <c r="V47" s="26">
-        <f t="shared" ref="V47" si="66">V46/V44</f>
+        <f t="shared" ref="V47:W47" si="67">V46/V44</f>
         <v>-0.63831686046511626</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="73" t="s">
+      <c r="W47" s="27">
+        <f t="shared" si="67"/>
+        <v>-7.0118934911242592</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A48" s="68" t="s">
         <v>74</v>
       </c>
       <c r="I48" s="27">
@@ -10894,52 +11022,56 @@
         <v>-3.3106465045199727E-2</v>
       </c>
       <c r="L48" s="27">
-        <f t="shared" ref="L48:S48" si="67">L46/L40</f>
+        <f t="shared" ref="L48:S48" si="68">L46/L40</f>
         <v>-8.0607104742687105E-2</v>
       </c>
       <c r="M48" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-4.7813469825272466E-2</v>
       </c>
       <c r="N48" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-0.13580106221916238</v>
       </c>
       <c r="O48" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-8.7112615892289857E-2</v>
       </c>
       <c r="P48" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-0.14815084044486118</v>
       </c>
       <c r="Q48" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-0.21400873362445413</v>
       </c>
       <c r="R48" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-9.9256019506248086E-2</v>
       </c>
       <c r="S48" s="27">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-7.0259491864116494E-2</v>
       </c>
       <c r="T48" s="27">
-        <f t="shared" ref="T48:U48" si="68">T46/T40</f>
+        <f t="shared" ref="T48:U48" si="69">T46/T40</f>
         <v>-5.5300192254875036E-2</v>
       </c>
       <c r="U48" s="27">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>-8.9877760657421674E-2</v>
       </c>
       <c r="V48" s="26">
-        <f t="shared" ref="V48" si="69">V46/V40</f>
+        <f t="shared" ref="V48:W48" si="70">V46/V40</f>
         <v>-0.10875730559683011</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49" s="73" t="s">
+      <c r="W48" s="27">
+        <f t="shared" si="70"/>
+        <v>-0.33277450154450988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A49" s="68" t="s">
         <v>75</v>
       </c>
       <c r="B49" s="3"/>
@@ -10956,52 +11088,56 @@
       <c r="J49" s="5"/>
       <c r="K49" s="3"/>
       <c r="L49" s="27">
-        <f t="shared" ref="L49:S49" si="70">L46/(L44-L39)</f>
+        <f t="shared" ref="L49:S49" si="71">L46/(L44-L39)</f>
         <v>-0.22459086600620681</v>
       </c>
       <c r="M49" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.21774351259872127</v>
       </c>
       <c r="N49" s="26">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-0.98722591371584412</v>
       </c>
       <c r="O49" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-1.2319433271920484</v>
       </c>
       <c r="P49" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-5.3718440235074842</v>
       </c>
       <c r="Q49" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>3.2671999999999994</v>
       </c>
       <c r="R49" s="26">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>6.0307222222222219</v>
       </c>
       <c r="S49" s="27">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-2.0509916666666674</v>
       </c>
       <c r="T49" s="27">
-        <f t="shared" ref="T49:U49" si="71">T46/(T44-T39)</f>
+        <f t="shared" ref="T49:U49" si="72">T46/(T44-T39)</f>
         <v>-3.6608727272727277</v>
       </c>
       <c r="U49" s="27">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1.7499199999999999</v>
       </c>
       <c r="V49" s="26">
-        <f t="shared" ref="V49" si="72">V46/(V44-V39)</f>
+        <f t="shared" ref="V49:W49" si="73">V46/(V44-V39)</f>
         <v>3.6904369747899159</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50" s="73" t="s">
+      <c r="W49" s="27">
+        <f t="shared" si="73"/>
+        <v>1.8458099688473517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A50" s="68" t="s">
         <v>76</v>
       </c>
       <c r="I50" s="27">
@@ -11009,51 +11145,55 @@
         <v>-0.1410921161825727</v>
       </c>
       <c r="L50" s="27">
-        <f t="shared" ref="L50:S50" si="73">L46/L43</f>
+        <f t="shared" ref="L50:S50" si="74">L46/L43</f>
         <v>-0.50560421835661418</v>
       </c>
       <c r="M50" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-0.37015039877251571</v>
       </c>
       <c r="N50" s="26">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-0.87461536909433935</v>
       </c>
       <c r="O50" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-0.52341021344152383</v>
       </c>
       <c r="P50" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-0.87340985704091989</v>
       </c>
       <c r="Q50" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-1.2640952380952379</v>
       </c>
       <c r="R50" s="26">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-0.42962928759894459</v>
       </c>
       <c r="S50" s="27">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>-0.31154303797468363</v>
       </c>
       <c r="T50" s="27">
-        <f t="shared" ref="T50:U50" si="74">T46/T43</f>
+        <f t="shared" ref="T50:U50" si="75">T46/T43</f>
         <v>-0.25043283582089554</v>
       </c>
       <c r="U50" s="27">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>-0.36343094496365524</v>
       </c>
       <c r="V50" s="26">
-        <f t="shared" ref="V50" si="75">V46/V43</f>
+        <f t="shared" ref="V50:W50" si="76">V46/V43</f>
         <v>-0.41944794651384909</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W50" s="27">
+        <f t="shared" si="76"/>
+        <v>-1.2292634854771782</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="Q51" s="51"/>
@@ -11061,10 +11201,11 @@
       <c r="S51" s="51"/>
       <c r="T51" s="51"/>
       <c r="U51" s="51"/>
-      <c r="V51" s="86"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="73" t="s">
+      <c r="V51" s="80"/>
+      <c r="W51" s="51"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A52" s="68" t="s">
         <v>77</v>
       </c>
       <c r="I52" s="27">
@@ -11072,52 +11213,56 @@
         <v>0.66327139252122014</v>
       </c>
       <c r="L52" s="27">
-        <f t="shared" ref="L52:V55" si="76">L3/H3-1</f>
+        <f t="shared" ref="L52:W55" si="77">L3/H3-1</f>
         <v>0.66649308021272224</v>
       </c>
       <c r="M52" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.6198035916250586</v>
       </c>
       <c r="N52" s="26">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.55183989072935824</v>
       </c>
       <c r="O52" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.56083681323180223</v>
       </c>
-      <c r="P52" s="65">
-        <f t="shared" si="76"/>
+      <c r="P52" s="64">
+        <f t="shared" si="77"/>
         <v>0.57634180523465006</v>
       </c>
-      <c r="Q52" s="65">
-        <f t="shared" si="76"/>
+      <c r="Q52" s="64">
+        <f t="shared" si="77"/>
         <v>0.54122565757542218</v>
       </c>
       <c r="R52" s="26">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.49927274083466977</v>
       </c>
-      <c r="S52" s="65">
-        <f t="shared" si="76"/>
+      <c r="S52" s="64">
+        <f t="shared" si="77"/>
         <v>0.49956721311475416</v>
       </c>
-      <c r="T52" s="65">
-        <f t="shared" si="76"/>
+      <c r="T52" s="64">
+        <f t="shared" si="77"/>
         <v>0.46667828051036842</v>
       </c>
-      <c r="U52" s="65">
-        <f t="shared" si="76"/>
+      <c r="U52" s="64">
+        <f t="shared" si="77"/>
         <v>0.42276795580110504</v>
       </c>
       <c r="V52" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.38290547263681596</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53" s="73" t="s">
+      <c r="W52" s="64">
+        <f t="shared" si="77"/>
+        <v>0.35853404698186142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A53" s="68" t="s">
         <v>78</v>
       </c>
       <c r="I53" s="27">
@@ -11125,52 +11270,56 @@
         <v>0.21833764113726017</v>
       </c>
       <c r="L53" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.22186605438931295</v>
       </c>
       <c r="M53" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.21801027244305504</v>
       </c>
       <c r="N53" s="26">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.21670449625421506</v>
       </c>
       <c r="O53" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.20713389407248184</v>
       </c>
-      <c r="P53" s="65">
-        <f t="shared" si="76"/>
+      <c r="P53" s="64">
+        <f t="shared" si="77"/>
         <v>0.2063255768550265</v>
       </c>
-      <c r="Q53" s="65">
-        <f t="shared" si="76"/>
+      <c r="Q53" s="64">
+        <f t="shared" si="77"/>
         <v>0.2146491268277031</v>
       </c>
       <c r="R53" s="26">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.18616287094547967</v>
       </c>
-      <c r="S53" s="65">
-        <f t="shared" si="76"/>
+      <c r="S53" s="64">
+        <f t="shared" si="77"/>
         <v>0.20292092506252501</v>
       </c>
-      <c r="T53" s="65">
-        <f t="shared" si="76"/>
+      <c r="T53" s="64">
+        <f t="shared" si="77"/>
         <v>0.21005037324755738</v>
       </c>
-      <c r="U53" s="65">
-        <f t="shared" si="76"/>
+      <c r="U53" s="64">
+        <f t="shared" si="77"/>
         <v>0.15824528301886787</v>
       </c>
       <c r="V53" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.16085454545454558</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54" s="73" t="s">
+      <c r="W53" s="64">
+        <f t="shared" si="77"/>
+        <v>0.12319789180078211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A54" s="68" t="s">
         <v>79</v>
       </c>
       <c r="I54" s="27">
@@ -11178,52 +11327,56 @@
         <v>8.0844173971302613E-2</v>
       </c>
       <c r="L54" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>9.1202872531418233E-2</v>
       </c>
       <c r="M54" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.16297329407510697</v>
       </c>
       <c r="N54" s="26">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.12294323323735079</v>
       </c>
       <c r="O54" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.20210781570602498</v>
       </c>
-      <c r="P54" s="65">
-        <f t="shared" si="76"/>
+      <c r="P54" s="64">
+        <f t="shared" si="77"/>
         <v>8.8327927419733943E-2</v>
       </c>
-      <c r="Q54" s="65">
-        <f t="shared" si="76"/>
+      <c r="Q54" s="64">
+        <f t="shared" si="77"/>
         <v>2.1586568357466529E-2</v>
       </c>
       <c r="R54" s="26">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.14474105957232486</v>
       </c>
-      <c r="S54" s="65">
-        <f t="shared" si="76"/>
+      <c r="S54" s="64">
+        <f t="shared" si="77"/>
         <v>0.12696873302816347</v>
       </c>
-      <c r="T54" s="65">
-        <f t="shared" si="76"/>
+      <c r="T54" s="64">
+        <f t="shared" si="77"/>
         <v>-9.2864547339322812E-2</v>
       </c>
-      <c r="U54" s="65">
-        <f t="shared" si="76"/>
+      <c r="U54" s="64">
+        <f t="shared" si="77"/>
         <v>-0.11456521739130443</v>
       </c>
       <c r="V54" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>-0.11451999999999996</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55" s="73" t="s">
+      <c r="W54" s="64">
+        <f t="shared" si="77"/>
+        <v>-0.23844273863206089</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A55" s="68" t="s">
         <v>80</v>
       </c>
       <c r="I55" s="27">
@@ -11231,58 +11384,62 @@
         <v>0.48674268443467494</v>
       </c>
       <c r="L55" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.4933319963902536</v>
       </c>
       <c r="M55" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.53040103492884882</v>
       </c>
       <c r="N55" s="26">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.38965876918492026</v>
       </c>
       <c r="O55" s="27">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.57553041965062568</v>
       </c>
-      <c r="P55" s="65">
-        <f t="shared" si="76"/>
+      <c r="P55" s="64">
+        <f t="shared" si="77"/>
         <v>0.39582354126099495</v>
       </c>
-      <c r="Q55" s="65">
-        <f t="shared" si="76"/>
+      <c r="Q55" s="64">
+        <f t="shared" si="77"/>
         <v>0.50947953145755331</v>
       </c>
       <c r="R55" s="26">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.44756594467081268</v>
       </c>
-      <c r="S55" s="65">
-        <f t="shared" si="76"/>
+      <c r="S55" s="64">
+        <f t="shared" si="77"/>
         <v>0.44915038232795235</v>
       </c>
-      <c r="T55" s="65">
-        <f t="shared" si="76"/>
+      <c r="T55" s="64">
+        <f t="shared" si="77"/>
         <v>0.28906099672888197</v>
       </c>
-      <c r="U55" s="65">
-        <f t="shared" si="76"/>
+      <c r="U55" s="64">
+        <f t="shared" si="77"/>
         <v>0.19263999999999992</v>
       </c>
       <c r="V55" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.17448148148148146</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W55" s="64">
+        <f t="shared" si="77"/>
+        <v>9.2955764664497398E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
       <c r="I56" s="51"/>
       <c r="L56" s="2"/>
       <c r="R56" s="7"/>
       <c r="S56" s="51"/>
     </row>
-    <row r="57" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="78" t="s">
+    <row r="57" spans="1:23" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="73" t="s">
         <v>81</v>
       </c>
       <c r="B57" s="3"/>
@@ -11333,12 +11490,15 @@
       <c r="U57" s="44">
         <v>174097</v>
       </c>
-      <c r="V57" s="83">
+      <c r="V57" s="77">
         <v>182717</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" s="58" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="81" t="s">
+      <c r="W57" s="44">
+        <v>194334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="75" t="s">
         <v>88</v>
       </c>
       <c r="B58" s="59"/>
@@ -11372,81 +11532,89 @@
         <v>0.20879840212155298</v>
       </c>
       <c r="Q58" s="25">
-        <f t="shared" ref="Q58:V58" si="77">Q57/M57-1</f>
+        <f t="shared" ref="Q58:W58" si="78">Q57/M57-1</f>
         <v>0.21408470857578932</v>
       </c>
       <c r="R58" s="26">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.15590841682641887</v>
       </c>
       <c r="S58" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.19210040872427392</v>
       </c>
       <c r="T58" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.18754078784765138</v>
       </c>
       <c r="U58" s="25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.13992286890988503</v>
       </c>
       <c r="V58" s="26">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.14350353908640878</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="W58" s="25">
+        <f t="shared" si="78"/>
+        <v>0.17928272346622975</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
       <c r="R59" s="7"/>
       <c r="S59" s="51"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A60" s="73" t="s">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A60" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="L60" s="65">
-        <f t="shared" ref="L60:V60" si="78">L9/H9-1</f>
+      <c r="L60" s="64">
+        <f t="shared" ref="L60:W60" si="79">L9/H9-1</f>
         <v>-1.6293427938014471E-3</v>
       </c>
-      <c r="M60" s="65">
-        <f t="shared" si="78"/>
+      <c r="M60" s="64">
+        <f t="shared" si="79"/>
         <v>-8.0108419355804372E-3</v>
       </c>
       <c r="N60" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>6.5778045172953936E-2</v>
       </c>
-      <c r="O60" s="65">
-        <f t="shared" si="78"/>
+      <c r="O60" s="64">
+        <f t="shared" si="79"/>
         <v>0.13465543851925399</v>
       </c>
-      <c r="P60" s="65">
-        <f t="shared" si="78"/>
+      <c r="P60" s="64">
+        <f t="shared" si="79"/>
         <v>0.14359772506607538</v>
       </c>
-      <c r="Q60" s="65">
-        <f t="shared" si="78"/>
+      <c r="Q60" s="64">
+        <f t="shared" si="79"/>
         <v>0.13185918806031549</v>
       </c>
       <c r="R60" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.17489008386481664</v>
       </c>
-      <c r="S60" s="65">
-        <f t="shared" si="78"/>
+      <c r="S60" s="64">
+        <f t="shared" si="79"/>
         <v>0.14677358470828672</v>
       </c>
-      <c r="T60" s="65">
-        <f t="shared" si="78"/>
+      <c r="T60" s="64">
+        <f t="shared" si="79"/>
         <v>0.12065012477659476</v>
       </c>
-      <c r="U60" s="65">
-        <f t="shared" si="78"/>
+      <c r="U60" s="64">
+        <f t="shared" si="79"/>
         <v>0.12727187086217762</v>
       </c>
       <c r="V60" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.10699854092505845</v>
+      </c>
+      <c r="W60" s="64">
+        <f t="shared" si="79"/>
+        <v>4.0158869782088935E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11475,7 +11643,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="81" t="s">
         <v>123</v>
       </c>
     </row>
